--- a/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.50824609350178</v>
+        <v>21.50824609350174</v>
       </c>
       <c r="C2">
-        <v>13.07512825413491</v>
+        <v>13.07512825413492</v>
       </c>
       <c r="D2">
-        <v>4.197747895961638</v>
+        <v>4.197747895961592</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.63255550691505</v>
+        <v>38.6325555069151</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.90184775657254</v>
+        <v>25.90184775657256</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.44326201174789</v>
+        <v>18.44326201174786</v>
       </c>
       <c r="K2">
-        <v>30.07711294282375</v>
+        <v>30.07711294282372</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.96215697696394</v>
+        <v>19.96215697696389</v>
       </c>
       <c r="C3">
-        <v>12.15780623341141</v>
+        <v>12.15780623341148</v>
       </c>
       <c r="D3">
-        <v>4.216211571751584</v>
+        <v>4.216211571751595</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.46219996620553</v>
+        <v>36.46219996620552</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.15979794037354</v>
+        <v>17.15979794037349</v>
       </c>
       <c r="K3">
-        <v>27.77001615760417</v>
+        <v>27.77001615760426</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.96787455363284</v>
+        <v>18.96787455363279</v>
       </c>
       <c r="C4">
-        <v>11.56713636959123</v>
+        <v>11.56713636959115</v>
       </c>
       <c r="D4">
-        <v>4.230506893250698</v>
+        <v>4.23050689325067</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.1139295924438</v>
+        <v>35.11392959244377</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.0817620602685</v>
+        <v>24.08176206026849</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.33471199966287</v>
+        <v>16.3347119996628</v>
       </c>
       <c r="K4">
-        <v>26.30201184646045</v>
+        <v>26.3020118464604</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.5510891309797</v>
+        <v>18.55108913097965</v>
       </c>
       <c r="C5">
-        <v>11.3193943441805</v>
+        <v>11.31939434418064</v>
       </c>
       <c r="D5">
-        <v>4.236997609790065</v>
+        <v>4.236997609790116</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.56078303954001</v>
+        <v>34.56078303953993</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.8028450314933</v>
+        <v>23.80284503149325</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.98894963871987</v>
+        <v>15.98894963871986</v>
       </c>
       <c r="K5">
-        <v>25.69008081887799</v>
+        <v>25.69008081887791</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48117299911288</v>
+        <v>18.48117299911276</v>
       </c>
       <c r="C6">
-        <v>11.27782791365989</v>
+        <v>11.27782791365992</v>
       </c>
       <c r="D6">
-        <v>4.238113453593573</v>
+        <v>4.238113453593752</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.46871861703961</v>
+        <v>34.46871861703964</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.75663256719123</v>
+        <v>23.75663256719134</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.93095431159317</v>
+        <v>15.9309543115931</v>
       </c>
       <c r="K6">
-        <v>25.58762135657581</v>
+        <v>25.58762135657583</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96230101067496</v>
+        <v>18.96230101067509</v>
       </c>
       <c r="C7">
-        <v>11.56382391400828</v>
+        <v>11.56382391400807</v>
       </c>
       <c r="D7">
-        <v>4.230591832552071</v>
+        <v>4.23059183255189</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.10648429894778</v>
+        <v>35.10648429894766</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.07799374394768</v>
+        <v>24.07799374394752</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.33008780054548</v>
+        <v>16.33008780054556</v>
       </c>
       <c r="K7">
-        <v>26.29381558743044</v>
+        <v>26.29381558743039</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.98430150378595</v>
+        <v>20.98430150378598</v>
       </c>
       <c r="C8">
-        <v>12.76443936037198</v>
+        <v>12.76443936037199</v>
       </c>
       <c r="D8">
-        <v>4.203449514267291</v>
+        <v>4.203449514267271</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.88755167386456</v>
+        <v>37.8875516738645</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.51035655330656</v>
+        <v>25.51035655330655</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.0082687960243</v>
+        <v>18.00826879602429</v>
       </c>
       <c r="K8">
-        <v>29.29180598847569</v>
+        <v>29.29180598847567</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.60771869222605</v>
+        <v>24.60771869222613</v>
       </c>
       <c r="C9">
-        <v>14.90834967853599</v>
+        <v>14.90834967853601</v>
       </c>
       <c r="D9">
-        <v>4.177854661754581</v>
+        <v>4.177854661754456</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.21613328817647</v>
+        <v>43.21613328817659</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28.37160156831234</v>
+        <v>28.37160156831243</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>21.01682962214855</v>
+        <v>21.01682962214865</v>
       </c>
       <c r="K9">
         <v>34.80353419051339</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.08607682965795</v>
+        <v>27.08607682965797</v>
       </c>
       <c r="C10">
-        <v>16.36651028894793</v>
+        <v>16.36651028894797</v>
       </c>
       <c r="D10">
-        <v>4.182839955953985</v>
+        <v>4.182839955954055</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.06823120429384</v>
+        <v>47.06823120429399</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30.51600692779148</v>
+        <v>30.51600692779159</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>23.07396917322515</v>
+        <v>23.07396917322514</v>
       </c>
       <c r="K10">
-        <v>38.69809990791943</v>
+        <v>38.69809990791948</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.18040393304145</v>
+        <v>28.18040393304156</v>
       </c>
       <c r="C11">
-        <v>17.00747270360956</v>
+        <v>17.00747270360958</v>
       </c>
       <c r="D11">
-        <v>4.192244655787271</v>
+        <v>4.192244655787233</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.82181453739571</v>
+        <v>48.82181453739576</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.98177150042638</v>
+        <v>23.98177150042645</v>
       </c>
       <c r="K11">
-        <v>40.45635712586498</v>
+        <v>40.45635712586511</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.59073937395929</v>
+        <v>28.59073937395915</v>
       </c>
       <c r="C12">
-        <v>17.24727137455828</v>
+        <v>17.24727137455822</v>
       </c>
       <c r="D12">
-        <v>4.197039878405788</v>
+        <v>4.197039878405846</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.52681244840548</v>
+        <v>49.52681244840518</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31.88299165554827</v>
+        <v>31.88299165554811</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>24.32204781076042</v>
+        <v>24.32204781076026</v>
       </c>
       <c r="K12">
-        <v>41.12243411965088</v>
+        <v>41.12243411965078</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.50253431015285</v>
+        <v>28.50253431015291</v>
       </c>
       <c r="C13">
-        <v>17.19575105121256</v>
+        <v>17.19575105121255</v>
       </c>
       <c r="D13">
-        <v>4.195948486910066</v>
+        <v>4.195948486910081</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.37503730224238</v>
+        <v>49.37503730224243</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.80158281391857</v>
+        <v>31.80158281391861</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>24.24890861386452</v>
+        <v>24.24890861386457</v>
       </c>
       <c r="K13">
-        <v>40.97892993061093</v>
+        <v>40.97892993061096</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.21423938733257</v>
+        <v>28.21423938733261</v>
       </c>
       <c r="C14">
-        <v>17.02725773040499</v>
+        <v>17.02725773040501</v>
       </c>
       <c r="D14">
-        <v>4.192613088196283</v>
+        <v>4.19261308819613</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.87984368233628</v>
+        <v>48.87984368233634</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31.53658959790629</v>
+        <v>31.5365895979063</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>24.00983267953325</v>
+        <v>24.00983267953332</v>
       </c>
       <c r="K14">
-        <v>40.51113588455647</v>
+        <v>40.51113588455652</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.03714448884423</v>
+        <v>28.03714448884417</v>
       </c>
       <c r="C15">
-        <v>16.92368007758235</v>
+        <v>16.92368007758228</v>
       </c>
       <c r="D15">
-        <v>4.19073764567842</v>
+        <v>4.19073764567847</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.58443132306265</v>
+        <v>48.58443132306252</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31.37464193027447</v>
+        <v>31.3746419302744</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.86295526984338</v>
+        <v>23.86295526984332</v>
       </c>
       <c r="K15">
-        <v>40.22470713945739</v>
+        <v>40.22470713945734</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.01395043815882</v>
+        <v>27.01395043815881</v>
       </c>
       <c r="C16">
-        <v>16.32419609204234</v>
+        <v>16.32419609204231</v>
       </c>
       <c r="D16">
-        <v>4.182385744124771</v>
+        <v>4.182385744124812</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.95406206111358</v>
+        <v>46.9540620611135</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30.45166723493405</v>
+        <v>30.45166723493398</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>23.01412226510404</v>
+        <v>23.01412226510403</v>
       </c>
       <c r="K16">
-        <v>38.58309929718557</v>
+        <v>38.58309929718552</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.37823147932797</v>
+        <v>26.37823147932795</v>
       </c>
       <c r="C17">
-        <v>15.95090027614305</v>
+        <v>15.95090027614315</v>
       </c>
       <c r="D17">
-        <v>4.179224960938471</v>
+        <v>4.179224960938539</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.95292564078424</v>
+        <v>45.95292564078434</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29.88944316579277</v>
+        <v>29.88944316579285</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>22.48656926026004</v>
       </c>
       <c r="K17">
-        <v>37.57399265639362</v>
+        <v>37.57399265639368</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.00941932135658</v>
+        <v>26.00941932135663</v>
       </c>
       <c r="C18">
-        <v>15.73406530863939</v>
+        <v>15.73406530863954</v>
       </c>
       <c r="D18">
-        <v>4.178064098846296</v>
+        <v>4.178064098846199</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.37645142698265</v>
+        <v>45.37645142698283</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29.56734393680243</v>
+        <v>29.56734393680253</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.18046147676374</v>
+        <v>22.1804614767638</v>
       </c>
       <c r="K18">
-        <v>36.99216233389748</v>
+        <v>36.99216233389762</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.88398354808456</v>
+        <v>25.88398354808453</v>
       </c>
       <c r="C19">
-        <v>15.66027548551154</v>
+        <v>15.66027548551167</v>
       </c>
       <c r="D19">
-        <v>4.177778255479463</v>
+        <v>4.177778255479457</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.18113148719065</v>
+        <v>45.18113148719053</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29.4584902826471</v>
+        <v>29.45849028264703</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>22.07634481091026</v>
       </c>
       <c r="K19">
-        <v>36.79486247979863</v>
+        <v>36.79486247979857</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.446227652367</v>
+        <v>26.44622765236711</v>
       </c>
       <c r="C20">
-        <v>15.99085620222943</v>
+        <v>15.99085620222949</v>
       </c>
       <c r="D20">
-        <v>4.179492049790026</v>
+        <v>4.179492049789998</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.0595592441762</v>
+        <v>46.05955924417641</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.9491568181014</v>
+        <v>29.94915681810147</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.54300129150037</v>
+        <v>22.54300129150048</v>
       </c>
       <c r="K20">
-        <v>37.68154643486688</v>
+        <v>37.68154643486701</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>28.2990225758037</v>
       </c>
       <c r="C21">
-        <v>17.07682494127632</v>
+        <v>17.07682494127598</v>
       </c>
       <c r="D21">
-        <v>4.19355741713092</v>
+        <v>4.193557417130869</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.02533241663925</v>
+        <v>49.02533241663903</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31.61434632182807</v>
+        <v>31.61434632182795</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>24.08014492072611</v>
+        <v>24.08014492072598</v>
       </c>
       <c r="K21">
-        <v>40.64851098123594</v>
+        <v>40.64851098123599</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.48668954287589</v>
+        <v>29.48668954287591</v>
       </c>
       <c r="C22">
-        <v>17.76972492561684</v>
+        <v>17.76972492561704</v>
       </c>
       <c r="D22">
-        <v>4.210072136782646</v>
+        <v>4.210072136782616</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.07545707782219</v>
+        <v>51.07545707782212</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32.71858890636559</v>
+        <v>32.71858890636552</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>25.06475865318894</v>
+        <v>25.06475865318898</v>
       </c>
       <c r="K22">
-        <v>42.59058285211162</v>
+        <v>42.59058285211169</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.85466550791718</v>
+        <v>28.85466550791717</v>
       </c>
       <c r="C23">
-        <v>17.40134086997914</v>
+        <v>17.40134086997912</v>
       </c>
       <c r="D23">
-        <v>4.200507326969836</v>
+        <v>4.200507326969749</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.9816954199424</v>
+        <v>49.98169541994238</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24.54087321793725</v>
+        <v>24.54087321793728</v>
       </c>
       <c r="K23">
-        <v>41.55291087218245</v>
+        <v>41.5529108721825</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.41549700174645</v>
+        <v>26.41549700174629</v>
       </c>
       <c r="C24">
-        <v>15.97279907147521</v>
+        <v>15.9727990714752</v>
       </c>
       <c r="D24">
-        <v>4.179369269737488</v>
+        <v>4.179369269737492</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.01135308818075</v>
+        <v>46.01135308818076</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29.92215679791739</v>
+        <v>29.92215679791749</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.51749716346206</v>
+        <v>22.5174971634619</v>
       </c>
       <c r="K24">
-        <v>37.63292676666043</v>
+        <v>37.63292676666027</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.6617577239349</v>
+        <v>23.66175772393489</v>
       </c>
       <c r="C25">
-        <v>14.34981542473406</v>
+        <v>14.34981542473401</v>
       </c>
       <c r="D25">
-        <v>4.181176800749856</v>
+        <v>4.181176800749797</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.78736936775449</v>
+        <v>41.78736936775454</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.59129687950668</v>
+        <v>27.59129687950674</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20.23139093618066</v>
+        <v>20.23139093618064</v>
       </c>
       <c r="K25">
-        <v>33.3454404107362</v>
+        <v>33.3454404107361</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
@@ -412,34 +412,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.50824609350174</v>
+        <v>21.50824609350178</v>
       </c>
       <c r="C2">
-        <v>13.07512825413492</v>
+        <v>13.07512825413491</v>
       </c>
       <c r="D2">
-        <v>4.197747895961592</v>
+        <v>4.197747895961638</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.6325555069151</v>
+        <v>38.63255550691505</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>25.90184775657256</v>
+        <v>25.90184775657254</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>18.44326201174786</v>
+        <v>18.44326201174789</v>
       </c>
       <c r="K2">
-        <v>30.07711294282372</v>
+        <v>30.07711294282375</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.96215697696389</v>
+        <v>19.96215697696394</v>
       </c>
       <c r="C3">
-        <v>12.15780623341148</v>
+        <v>12.15780623341141</v>
       </c>
       <c r="D3">
-        <v>4.216211571751595</v>
+        <v>4.216211571751584</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.46219996620552</v>
+        <v>36.46219996620553</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>17.15979794037349</v>
+        <v>17.15979794037354</v>
       </c>
       <c r="K3">
-        <v>27.77001615760426</v>
+        <v>27.77001615760417</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.96787455363279</v>
+        <v>18.96787455363284</v>
       </c>
       <c r="C4">
-        <v>11.56713636959115</v>
+        <v>11.56713636959123</v>
       </c>
       <c r="D4">
-        <v>4.23050689325067</v>
+        <v>4.230506893250698</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.11392959244377</v>
+        <v>35.1139295924438</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>24.08176206026849</v>
+        <v>24.0817620602685</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>16.3347119996628</v>
+        <v>16.33471199966287</v>
       </c>
       <c r="K4">
-        <v>26.3020118464604</v>
+        <v>26.30201184646045</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,34 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.55108913097965</v>
+        <v>18.5510891309797</v>
       </c>
       <c r="C5">
-        <v>11.31939434418064</v>
+        <v>11.3193943441805</v>
       </c>
       <c r="D5">
-        <v>4.236997609790116</v>
+        <v>4.236997609790065</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.56078303953993</v>
+        <v>34.56078303954001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>23.80284503149325</v>
+        <v>23.8028450314933</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>15.98894963871986</v>
+        <v>15.98894963871987</v>
       </c>
       <c r="K5">
-        <v>25.69008081887791</v>
+        <v>25.69008081887799</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,34 +564,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48117299911276</v>
+        <v>18.48117299911288</v>
       </c>
       <c r="C6">
-        <v>11.27782791365992</v>
+        <v>11.27782791365989</v>
       </c>
       <c r="D6">
-        <v>4.238113453593752</v>
+        <v>4.238113453593573</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.46871861703964</v>
+        <v>34.46871861703961</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>23.75663256719134</v>
+        <v>23.75663256719123</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>15.9309543115931</v>
+        <v>15.93095431159317</v>
       </c>
       <c r="K6">
-        <v>25.58762135657583</v>
+        <v>25.58762135657581</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96230101067509</v>
+        <v>18.96230101067496</v>
       </c>
       <c r="C7">
-        <v>11.56382391400807</v>
+        <v>11.56382391400828</v>
       </c>
       <c r="D7">
-        <v>4.23059183255189</v>
+        <v>4.230591832552071</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.10648429894766</v>
+        <v>35.10648429894778</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>24.07799374394752</v>
+        <v>24.07799374394768</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>16.33008780054556</v>
+        <v>16.33008780054548</v>
       </c>
       <c r="K7">
-        <v>26.29381558743039</v>
+        <v>26.29381558743044</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.98430150378598</v>
+        <v>20.98430150378595</v>
       </c>
       <c r="C8">
-        <v>12.76443936037199</v>
+        <v>12.76443936037198</v>
       </c>
       <c r="D8">
-        <v>4.203449514267271</v>
+        <v>4.203449514267291</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.8875516738645</v>
+        <v>37.88755167386456</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25.51035655330655</v>
+        <v>25.51035655330656</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>18.00826879602429</v>
+        <v>18.0082687960243</v>
       </c>
       <c r="K8">
-        <v>29.29180598847567</v>
+        <v>29.29180598847569</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.60771869222613</v>
+        <v>24.60771869222605</v>
       </c>
       <c r="C9">
-        <v>14.90834967853601</v>
+        <v>14.90834967853599</v>
       </c>
       <c r="D9">
-        <v>4.177854661754456</v>
+        <v>4.177854661754581</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.21613328817659</v>
+        <v>43.21613328817647</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>28.37160156831243</v>
+        <v>28.37160156831234</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>21.01682962214865</v>
+        <v>21.01682962214855</v>
       </c>
       <c r="K9">
         <v>34.80353419051339</v>
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.08607682965797</v>
+        <v>27.08607682965795</v>
       </c>
       <c r="C10">
-        <v>16.36651028894797</v>
+        <v>16.36651028894793</v>
       </c>
       <c r="D10">
-        <v>4.182839955954055</v>
+        <v>4.182839955953985</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.06823120429399</v>
+        <v>47.06823120429384</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>30.51600692779159</v>
+        <v>30.51600692779148</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>23.07396917322514</v>
+        <v>23.07396917322515</v>
       </c>
       <c r="K10">
-        <v>38.69809990791948</v>
+        <v>38.69809990791943</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.18040393304156</v>
+        <v>28.18040393304145</v>
       </c>
       <c r="C11">
-        <v>17.00747270360958</v>
+        <v>17.00747270360956</v>
       </c>
       <c r="D11">
-        <v>4.192244655787233</v>
+        <v>4.192244655787271</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.82181453739576</v>
+        <v>48.82181453739571</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>23.98177150042645</v>
+        <v>23.98177150042638</v>
       </c>
       <c r="K11">
-        <v>40.45635712586511</v>
+        <v>40.45635712586498</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.59073937395915</v>
+        <v>28.59073937395929</v>
       </c>
       <c r="C12">
-        <v>17.24727137455822</v>
+        <v>17.24727137455828</v>
       </c>
       <c r="D12">
-        <v>4.197039878405846</v>
+        <v>4.197039878405788</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.52681244840518</v>
+        <v>49.52681244840548</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>31.88299165554811</v>
+        <v>31.88299165554827</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>24.32204781076026</v>
+        <v>24.32204781076042</v>
       </c>
       <c r="K12">
-        <v>41.12243411965078</v>
+        <v>41.12243411965088</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,34 +830,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.50253431015291</v>
+        <v>28.50253431015285</v>
       </c>
       <c r="C13">
-        <v>17.19575105121255</v>
+        <v>17.19575105121256</v>
       </c>
       <c r="D13">
-        <v>4.195948486910081</v>
+        <v>4.195948486910066</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.37503730224243</v>
+        <v>49.37503730224238</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>31.80158281391861</v>
+        <v>31.80158281391857</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>24.24890861386457</v>
+        <v>24.24890861386452</v>
       </c>
       <c r="K13">
-        <v>40.97892993061096</v>
+        <v>40.97892993061093</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.21423938733261</v>
+        <v>28.21423938733257</v>
       </c>
       <c r="C14">
-        <v>17.02725773040501</v>
+        <v>17.02725773040499</v>
       </c>
       <c r="D14">
-        <v>4.19261308819613</v>
+        <v>4.192613088196283</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.87984368233634</v>
+        <v>48.87984368233628</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>31.5365895979063</v>
+        <v>31.53658959790629</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>24.00983267953332</v>
+        <v>24.00983267953325</v>
       </c>
       <c r="K14">
-        <v>40.51113588455652</v>
+        <v>40.51113588455647</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.03714448884417</v>
+        <v>28.03714448884423</v>
       </c>
       <c r="C15">
-        <v>16.92368007758228</v>
+        <v>16.92368007758235</v>
       </c>
       <c r="D15">
-        <v>4.19073764567847</v>
+        <v>4.19073764567842</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.58443132306252</v>
+        <v>48.58443132306265</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31.3746419302744</v>
+        <v>31.37464193027447</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>23.86295526984332</v>
+        <v>23.86295526984338</v>
       </c>
       <c r="K15">
-        <v>40.22470713945734</v>
+        <v>40.22470713945739</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.01395043815881</v>
+        <v>27.01395043815882</v>
       </c>
       <c r="C16">
-        <v>16.32419609204231</v>
+        <v>16.32419609204234</v>
       </c>
       <c r="D16">
-        <v>4.182385744124812</v>
+        <v>4.182385744124771</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.9540620611135</v>
+        <v>46.95406206111358</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>30.45166723493398</v>
+        <v>30.45166723493405</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>23.01412226510403</v>
+        <v>23.01412226510404</v>
       </c>
       <c r="K16">
-        <v>38.58309929718552</v>
+        <v>38.58309929718557</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.37823147932795</v>
+        <v>26.37823147932797</v>
       </c>
       <c r="C17">
-        <v>15.95090027614315</v>
+        <v>15.95090027614305</v>
       </c>
       <c r="D17">
-        <v>4.179224960938539</v>
+        <v>4.179224960938471</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.95292564078434</v>
+        <v>45.95292564078424</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>29.88944316579285</v>
+        <v>29.88944316579277</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>22.48656926026004</v>
       </c>
       <c r="K17">
-        <v>37.57399265639368</v>
+        <v>37.57399265639362</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.00941932135663</v>
+        <v>26.00941932135658</v>
       </c>
       <c r="C18">
-        <v>15.73406530863954</v>
+        <v>15.73406530863939</v>
       </c>
       <c r="D18">
-        <v>4.178064098846199</v>
+        <v>4.178064098846296</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.37645142698283</v>
+        <v>45.37645142698265</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29.56734393680253</v>
+        <v>29.56734393680243</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.1804614767638</v>
+        <v>22.18046147676374</v>
       </c>
       <c r="K18">
-        <v>36.99216233389762</v>
+        <v>36.99216233389748</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.88398354808453</v>
+        <v>25.88398354808456</v>
       </c>
       <c r="C19">
-        <v>15.66027548551167</v>
+        <v>15.66027548551154</v>
       </c>
       <c r="D19">
-        <v>4.177778255479457</v>
+        <v>4.177778255479463</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.18113148719053</v>
+        <v>45.18113148719065</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>29.45849028264703</v>
+        <v>29.4584902826471</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>22.07634481091026</v>
       </c>
       <c r="K19">
-        <v>36.79486247979857</v>
+        <v>36.79486247979863</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.44622765236711</v>
+        <v>26.446227652367</v>
       </c>
       <c r="C20">
-        <v>15.99085620222949</v>
+        <v>15.99085620222943</v>
       </c>
       <c r="D20">
-        <v>4.179492049789998</v>
+        <v>4.179492049790026</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.05955924417641</v>
+        <v>46.0595592441762</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29.94915681810147</v>
+        <v>29.9491568181014</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.54300129150048</v>
+        <v>22.54300129150037</v>
       </c>
       <c r="K20">
-        <v>37.68154643486701</v>
+        <v>37.68154643486688</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>28.2990225758037</v>
       </c>
       <c r="C21">
-        <v>17.07682494127598</v>
+        <v>17.07682494127632</v>
       </c>
       <c r="D21">
-        <v>4.193557417130869</v>
+        <v>4.19355741713092</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.02533241663903</v>
+        <v>49.02533241663925</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>31.61434632182795</v>
+        <v>31.61434632182807</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>24.08014492072598</v>
+        <v>24.08014492072611</v>
       </c>
       <c r="K21">
-        <v>40.64851098123599</v>
+        <v>40.64851098123594</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.48668954287591</v>
+        <v>29.48668954287589</v>
       </c>
       <c r="C22">
-        <v>17.76972492561704</v>
+        <v>17.76972492561684</v>
       </c>
       <c r="D22">
-        <v>4.210072136782616</v>
+        <v>4.210072136782646</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.07545707782212</v>
+        <v>51.07545707782219</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>32.71858890636552</v>
+        <v>32.71858890636559</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>25.06475865318898</v>
+        <v>25.06475865318894</v>
       </c>
       <c r="K22">
-        <v>42.59058285211169</v>
+        <v>42.59058285211162</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.85466550791717</v>
+        <v>28.85466550791718</v>
       </c>
       <c r="C23">
-        <v>17.40134086997912</v>
+        <v>17.40134086997914</v>
       </c>
       <c r="D23">
-        <v>4.200507326969749</v>
+        <v>4.200507326969836</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.98169541994238</v>
+        <v>49.9816954199424</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>24.54087321793728</v>
+        <v>24.54087321793725</v>
       </c>
       <c r="K23">
-        <v>41.5529108721825</v>
+        <v>41.55291087218245</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.41549700174629</v>
+        <v>26.41549700174645</v>
       </c>
       <c r="C24">
-        <v>15.9727990714752</v>
+        <v>15.97279907147521</v>
       </c>
       <c r="D24">
-        <v>4.179369269737492</v>
+        <v>4.179369269737488</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.01135308818076</v>
+        <v>46.01135308818075</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>29.92215679791749</v>
+        <v>29.92215679791739</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.5174971634619</v>
+        <v>22.51749716346206</v>
       </c>
       <c r="K24">
-        <v>37.63292676666027</v>
+        <v>37.63292676666043</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,34 +1286,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.66175772393489</v>
+        <v>23.6617577239349</v>
       </c>
       <c r="C25">
-        <v>14.34981542473401</v>
+        <v>14.34981542473406</v>
       </c>
       <c r="D25">
-        <v>4.181176800749797</v>
+        <v>4.181176800749856</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.78736936775454</v>
+        <v>41.78736936775449</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27.59129687950674</v>
+        <v>27.59129687950668</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>20.23139093618064</v>
+        <v>20.23139093618066</v>
       </c>
       <c r="K25">
-        <v>33.3454404107361</v>
+        <v>33.3454404107362</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.50824609350178</v>
+        <v>21.39699704888033</v>
       </c>
       <c r="C2">
-        <v>13.07512825413491</v>
+        <v>12.94269552935068</v>
       </c>
       <c r="D2">
-        <v>4.197747895961638</v>
+        <v>4.314690359696813</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.63255550691505</v>
+        <v>38.74027464011036</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.051338996972396</v>
       </c>
       <c r="H2">
-        <v>25.90184775657254</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>26.02932627097366</v>
       </c>
       <c r="J2">
-        <v>18.44326201174789</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>30.07711294282375</v>
+        <v>18.31490602660537</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>30.01844495555949</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.96215697696394</v>
+        <v>19.8553714452063</v>
       </c>
       <c r="C3">
-        <v>12.15780623341141</v>
+        <v>12.02739880866425</v>
       </c>
       <c r="D3">
-        <v>4.216211571751584</v>
+        <v>4.337411966324196</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.46219996620553</v>
+        <v>36.6057779980018</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.063636566616855</v>
       </c>
       <c r="H3">
-        <v>24.77023269624478</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>24.92132231647411</v>
       </c>
       <c r="J3">
-        <v>17.15979794037354</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>27.77001615760417</v>
+        <v>17.03367010544446</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>27.71748612389757</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.96787455363284</v>
+        <v>18.86386111867535</v>
       </c>
       <c r="C4">
-        <v>11.56713636959123</v>
+        <v>11.43787683805611</v>
       </c>
       <c r="D4">
-        <v>4.230506893250698</v>
+        <v>4.354197624203934</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.1139295924438</v>
+        <v>35.2815565098804</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.071294585648989</v>
       </c>
       <c r="H4">
-        <v>24.0817620602685</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>24.24823984313597</v>
       </c>
       <c r="J4">
-        <v>16.33471199966287</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>26.30201184646045</v>
+        <v>16.2097985558161</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>26.25316170817761</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.5510891309797</v>
+        <v>18.44821633946198</v>
       </c>
       <c r="C5">
-        <v>11.3193943441805</v>
+        <v>11.19057624352655</v>
       </c>
       <c r="D5">
-        <v>4.236997609790065</v>
+        <v>4.361677075262797</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.56078303954001</v>
+        <v>34.7387303538187</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.074446978485792</v>
       </c>
       <c r="H5">
-        <v>23.8028450314933</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>23.97581037764391</v>
       </c>
       <c r="J5">
-        <v>15.98894963871987</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>25.69008081887799</v>
+        <v>15.86449060409562</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>25.64271740460677</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48117299911288</v>
+        <v>18.37849035286015</v>
       </c>
       <c r="C6">
-        <v>11.27782791365989</v>
+        <v>11.14908143349443</v>
       </c>
       <c r="D6">
-        <v>4.238113453593573</v>
+        <v>4.36295566253099</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.46871861703961</v>
+        <v>34.64841121900971</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.074972473002389</v>
       </c>
       <c r="H6">
-        <v>23.75663256719123</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>23.93068797109589</v>
       </c>
       <c r="J6">
-        <v>15.93095431159317</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>25.58762135657581</v>
+        <v>15.80656820707252</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>25.54050427981603</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.96230101067496</v>
+        <v>18.85830291070567</v>
       </c>
       <c r="C7">
-        <v>11.56382391400828</v>
+        <v>11.43457044623242</v>
       </c>
       <c r="D7">
-        <v>4.230591832552071</v>
+        <v>4.354295997160514</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.10648429894778</v>
+        <v>35.27424828570511</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.071336965755385</v>
       </c>
       <c r="H7">
-        <v>24.07799374394768</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>24.24455815519087</v>
       </c>
       <c r="J7">
-        <v>16.33008780054548</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>26.29381558743044</v>
+        <v>16.20518065228013</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>26.24498554042667</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.98430150378595</v>
+        <v>20.87458699731775</v>
       </c>
       <c r="C8">
-        <v>12.76443936037198</v>
+        <v>12.63272374642449</v>
       </c>
       <c r="D8">
-        <v>4.203449514267291</v>
+        <v>4.321889059546806</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.88755167386456</v>
+        <v>38.00722063237495</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.055559947192231</v>
       </c>
       <c r="H8">
-        <v>25.51035655330656</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>25.64578817566264</v>
       </c>
       <c r="J8">
-        <v>18.0082687960243</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>29.29180598847569</v>
+        <v>17.88071231367879</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>29.2352790916002</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.60771869222605</v>
+        <v>24.48686592236645</v>
       </c>
       <c r="C9">
-        <v>14.90834967853599</v>
+        <v>14.7710973988987</v>
       </c>
       <c r="D9">
-        <v>4.177854661754581</v>
+        <v>4.284732971086676</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.21613328817647</v>
+        <v>43.25693266215704</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.025226806337441</v>
       </c>
       <c r="H9">
-        <v>28.37160156831234</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>28.45315602259664</v>
       </c>
       <c r="J9">
-        <v>21.01682962214855</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>34.80353419051339</v>
+        <v>20.88286560588709</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>34.73066192493594</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.08607682965795</v>
+        <v>26.95675449151016</v>
       </c>
       <c r="C10">
-        <v>16.36651028894793</v>
+        <v>16.22475891172868</v>
       </c>
       <c r="D10">
-        <v>4.182839955953985</v>
+        <v>4.280078372551753</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.06823120429384</v>
+        <v>47.05926584482176</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.002904121205996</v>
       </c>
       <c r="H10">
-        <v>30.51600692779148</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>30.56217599163626</v>
       </c>
       <c r="J10">
-        <v>23.07396917322515</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>38.69809990791943</v>
+        <v>22.93445719453278</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>38.6114219680679</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.18040393304145</v>
+        <v>28.04705953277446</v>
       </c>
       <c r="C11">
-        <v>17.00747270360956</v>
+        <v>16.86356150134059</v>
       </c>
       <c r="D11">
-        <v>4.192244655787271</v>
+        <v>4.284748626297155</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.82181453739571</v>
+        <v>48.78432169539359</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.992626591623336</v>
       </c>
       <c r="H11">
-        <v>31.50559889843266</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>31.53644725807974</v>
       </c>
       <c r="J11">
-        <v>23.98177150042638</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>40.45635712586498</v>
+        <v>23.83949448124593</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>40.36265963715584</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.59073937395929</v>
+        <v>28.45583495447595</v>
       </c>
       <c r="C12">
-        <v>17.24727137455828</v>
+        <v>17.10252297342194</v>
       </c>
       <c r="D12">
-        <v>4.197039878405788</v>
+        <v>4.287691099764027</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.52681244840548</v>
+        <v>49.43783578586093</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.988705067715779</v>
       </c>
       <c r="H12">
-        <v>31.88299165554827</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>31.90813136929138</v>
       </c>
       <c r="J12">
-        <v>24.32204781076042</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>41.12243411965088</v>
+        <v>24.17868093065406</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>41.02592920254357</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.50253431015285</v>
+        <v>28.36796775770916</v>
       </c>
       <c r="C13">
-        <v>17.19575105121256</v>
+        <v>17.05118387774448</v>
       </c>
       <c r="D13">
-        <v>4.195948486910066</v>
+        <v>4.28700156608136</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.37503730224238</v>
+        <v>49.29705912915139</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.989551175774506</v>
       </c>
       <c r="H13">
-        <v>31.80158281391857</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>31.82794822514358</v>
       </c>
       <c r="J13">
-        <v>24.24890861386452</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>40.97892993061093</v>
+        <v>24.10577852310239</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>40.88303713861412</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.21423938733257</v>
+        <v>28.08076747083227</v>
       </c>
       <c r="C14">
-        <v>17.02725773040499</v>
+        <v>16.88327806060611</v>
       </c>
       <c r="D14">
-        <v>4.192613088196283</v>
+        <v>4.284965893522436</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.87984368233628</v>
+        <v>48.83807464942705</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.992304637637507</v>
       </c>
       <c r="H14">
-        <v>31.53658959790629</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>31.56696657255358</v>
       </c>
       <c r="J14">
-        <v>24.00983267953325</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>40.51113588455647</v>
+        <v>23.86746691278167</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>40.417210721171</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.03714448884423</v>
+        <v>27.90433781274947</v>
       </c>
       <c r="C15">
-        <v>16.92368007758235</v>
+        <v>16.78005764210463</v>
       </c>
       <c r="D15">
-        <v>4.19073764567842</v>
+        <v>4.283878455284479</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.58443132306265</v>
+        <v>48.55700249304041</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.993986951791088</v>
       </c>
       <c r="H15">
-        <v>31.37464193027447</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>31.40748753809117</v>
       </c>
       <c r="J15">
-        <v>23.86295526984338</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>40.22470713945739</v>
+        <v>23.72105180374431</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>40.13196622496315</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.01395043815882</v>
+        <v>26.88488655502495</v>
       </c>
       <c r="C16">
-        <v>16.32419609204234</v>
+        <v>16.18258335557222</v>
       </c>
       <c r="D16">
-        <v>4.182385744124771</v>
+        <v>4.279925743118825</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.95406206111358</v>
+        <v>46.9465090461603</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.003572342619349</v>
       </c>
       <c r="H16">
-        <v>30.45166723493405</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>30.49885172257523</v>
       </c>
       <c r="J16">
-        <v>23.01412226510404</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>38.58309929718557</v>
+        <v>22.87478551136136</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>38.4968618860519</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.37823147932797</v>
+        <v>26.2514125235959</v>
       </c>
       <c r="C17">
-        <v>15.95090027614305</v>
+        <v>15.81048966207095</v>
       </c>
       <c r="D17">
-        <v>4.179224960938471</v>
+        <v>4.279367798684718</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.95292564078424</v>
+        <v>45.95790438539918</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.009413444751247</v>
       </c>
       <c r="H17">
-        <v>29.88944316579277</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>29.94561171612894</v>
       </c>
       <c r="J17">
-        <v>22.48656926026004</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>37.57399265639362</v>
+        <v>22.34874048961704</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>37.49152943656077</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.00941932135658</v>
+        <v>25.88387660465228</v>
       </c>
       <c r="C18">
-        <v>15.73406530863939</v>
+        <v>15.5943357238362</v>
       </c>
       <c r="D18">
-        <v>4.178064098846296</v>
+        <v>4.279671802909396</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.37645142698265</v>
+        <v>45.3887740989654</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.012762377081361</v>
       </c>
       <c r="H18">
-        <v>29.56734393680243</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>29.62875442888895</v>
       </c>
       <c r="J18">
-        <v>22.18046147676374</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>36.99216233389748</v>
+        <v>22.04347799529635</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>36.9118036170762</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.88398354808456</v>
+        <v>25.7588706943021</v>
       </c>
       <c r="C19">
-        <v>15.66027548551154</v>
+        <v>15.52077477200973</v>
       </c>
       <c r="D19">
-        <v>4.177778255479463</v>
+        <v>4.279876678312887</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.18113148719065</v>
+        <v>45.19596506428943</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.013894753167266</v>
       </c>
       <c r="H19">
-        <v>29.4584902826471</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>29.5216888704059</v>
       </c>
       <c r="J19">
-        <v>22.07634481091026</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>36.79486247979863</v>
+        <v>21.939643938334</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>36.715206000751</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.446227652367</v>
+        <v>26.31917135021846</v>
       </c>
       <c r="C20">
-        <v>15.99085620222943</v>
+        <v>15.85031871457647</v>
       </c>
       <c r="D20">
-        <v>4.179492049790026</v>
+        <v>4.279361211189533</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.0595592441762</v>
+        <v>46.06319013417797</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.008792837300789</v>
       </c>
       <c r="H20">
-        <v>29.9491568181014</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>30.00436139806395</v>
       </c>
       <c r="J20">
-        <v>22.54300129150037</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>37.68154643486688</v>
+        <v>22.40501432576271</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>37.59868857350365</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.2990225758037</v>
+        <v>28.16523026203306</v>
       </c>
       <c r="C21">
-        <v>17.07682494127632</v>
+        <v>16.93267326254239</v>
       </c>
       <c r="D21">
-        <v>4.19355741713092</v>
+        <v>4.28553017208903</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.02533241663925</v>
+        <v>48.97287295985555</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.991496792276513</v>
       </c>
       <c r="H21">
-        <v>31.61434632182807</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>31.64354266360546</v>
       </c>
       <c r="J21">
-        <v>24.08014492072611</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>40.64851098123594</v>
+        <v>23.93755589603295</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>40.55401234991628</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.48668954287589</v>
+        <v>29.34827031343357</v>
       </c>
       <c r="C22">
-        <v>17.76972492561684</v>
+        <v>17.62309613454131</v>
       </c>
       <c r="D22">
-        <v>4.210072136782646</v>
+        <v>4.29652923487571</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>51.07545707782219</v>
+        <v>50.96666472264678</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.980012413231254</v>
       </c>
       <c r="H22">
-        <v>32.71858890636559</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>32.73131512512101</v>
       </c>
       <c r="J22">
-        <v>25.06475865318894</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>42.59058285211162</v>
+        <v>24.91890607978342</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>42.4875734135407</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.85466550791718</v>
+        <v>28.71874162339903</v>
       </c>
       <c r="C23">
-        <v>17.40134086997914</v>
+        <v>17.2560460498675</v>
       </c>
       <c r="D23">
-        <v>4.200507326969836</v>
+        <v>4.289944320460207</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.9816954199424</v>
+        <v>49.88376610045437</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.986163034360639</v>
       </c>
       <c r="H23">
-        <v>32.12750547002837</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>32.14898192440382</v>
       </c>
       <c r="J23">
-        <v>24.54087321793725</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>41.55291087218245</v>
+        <v>24.39678946717562</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>41.4545451097996</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.41549700174645</v>
+        <v>26.28854804787066</v>
       </c>
       <c r="C24">
-        <v>15.97279907147521</v>
+        <v>15.83231897457384</v>
       </c>
       <c r="D24">
-        <v>4.179369269737488</v>
+        <v>4.279362257741094</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.01135308818075</v>
+        <v>46.01559290679931</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.009073441700359</v>
       </c>
       <c r="H24">
-        <v>29.92215679791739</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>29.97779694809528</v>
       </c>
       <c r="J24">
-        <v>22.51749716346206</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>37.63292676666043</v>
+        <v>22.37958178465903</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>37.55024752320816</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.6617577239349</v>
+        <v>23.54393942557815</v>
       </c>
       <c r="C25">
-        <v>14.34981542473406</v>
+        <v>14.21413336440504</v>
       </c>
       <c r="D25">
-        <v>4.181176800749856</v>
+        <v>4.291353076333669</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.78736936775449</v>
+        <v>41.84796323950926</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.033405771077917</v>
       </c>
       <c r="H25">
-        <v>27.59129687950668</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>27.68666019086867</v>
       </c>
       <c r="J25">
-        <v>20.23139093618066</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>33.3454404107362</v>
+        <v>20.09929469665632</v>
       </c>
       <c r="L25">
+        <v>33.27721330566485</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.39699704888033</v>
+        <v>20.42143904703556</v>
       </c>
       <c r="C2">
-        <v>12.94269552935068</v>
+        <v>13.81801869488375</v>
       </c>
       <c r="D2">
-        <v>4.314690359696813</v>
+        <v>3.904109728569217</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.74027464011036</v>
+        <v>35.30260502018796</v>
       </c>
       <c r="G2">
-        <v>2.051338996972396</v>
+        <v>2.057648705915404</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>26.02932627097366</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>18.31490602660537</v>
+        <v>17.84633256212148</v>
       </c>
       <c r="L2">
-        <v>30.01844495555949</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>30.06521786860193</v>
+      </c>
+      <c r="N2">
+        <v>13.54886565479868</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.8553714452063</v>
+        <v>18.95175454679311</v>
       </c>
       <c r="C3">
-        <v>12.02739880866425</v>
+        <v>12.8427140481539</v>
       </c>
       <c r="D3">
-        <v>4.337411966324196</v>
+        <v>3.980260584238858</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36.6057779980018</v>
+        <v>33.49590931814092</v>
       </c>
       <c r="G3">
-        <v>2.063636566616855</v>
+        <v>2.068881498535094</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.92132231647411</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.03367010544446</v>
+        <v>16.58665388762394</v>
       </c>
       <c r="L3">
-        <v>27.71748612389757</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>27.72097776689033</v>
+      </c>
+      <c r="N3">
+        <v>13.66253019159022</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.86386111867535</v>
+        <v>18.00435666806334</v>
       </c>
       <c r="C4">
-        <v>11.43787683805611</v>
+        <v>12.21425652923271</v>
       </c>
       <c r="D4">
-        <v>4.354197624203934</v>
+        <v>4.02819154247951</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.2815565098804</v>
+        <v>32.37932778121517</v>
       </c>
       <c r="G4">
-        <v>2.071294585648989</v>
+        <v>2.07589858173715</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.24823984313597</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.2097985558161</v>
+        <v>15.77449939982094</v>
       </c>
       <c r="L4">
-        <v>26.25316170817761</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.23534843063208</v>
+      </c>
+      <c r="N4">
+        <v>13.73854864891131</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44821633946198</v>
+        <v>17.60677321725611</v>
       </c>
       <c r="C5">
-        <v>11.19057624352655</v>
+        <v>11.9505698244209</v>
       </c>
       <c r="D5">
-        <v>4.361677075262797</v>
+        <v>4.048009767329988</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.7387303538187</v>
+        <v>31.92277867656917</v>
       </c>
       <c r="G5">
-        <v>2.074446978485792</v>
+        <v>2.078792116003793</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.97581037764391</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.86449060409562</v>
+        <v>15.43363208950963</v>
       </c>
       <c r="L5">
-        <v>25.64271740460677</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25.61728706523518</v>
+      </c>
+      <c r="N5">
+        <v>13.77100007713764</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37849035286015</v>
+        <v>17.54005419286926</v>
       </c>
       <c r="C6">
-        <v>11.14908143349443</v>
+        <v>11.90632289405342</v>
       </c>
       <c r="D6">
-        <v>4.36295566253099</v>
+        <v>4.051317636307231</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>34.64841121900971</v>
+        <v>31.84688729466906</v>
       </c>
       <c r="G6">
-        <v>2.074972473002389</v>
+        <v>2.079274743407134</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.93068797109589</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.80656820707252</v>
+        <v>15.37642806351543</v>
       </c>
       <c r="L6">
-        <v>25.54050427981603</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25.51386691803689</v>
+      </c>
+      <c r="N6">
+        <v>13.77647508680264</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.85830291070567</v>
+        <v>17.99904157132704</v>
       </c>
       <c r="C7">
-        <v>11.43457044623242</v>
+        <v>12.21073124491152</v>
       </c>
       <c r="D7">
-        <v>4.354295997160514</v>
+        <v>4.028457669749703</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.27424828570511</v>
+        <v>32.37317633387403</v>
       </c>
       <c r="G7">
-        <v>2.071336965755385</v>
+        <v>2.075937462478863</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.24455815519087</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.20518065228013</v>
+        <v>15.7699426821424</v>
       </c>
       <c r="L7">
-        <v>26.24498554042667</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.22706552695438</v>
+      </c>
+      <c r="N7">
+        <v>13.73898044965772</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.87458699731775</v>
+        <v>19.9239103225026</v>
       </c>
       <c r="C8">
-        <v>12.63272374642449</v>
+        <v>13.48779405057134</v>
       </c>
       <c r="D8">
-        <v>4.321889059546806</v>
+        <v>3.930116113202232</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.00722063237495</v>
+        <v>34.68130164550713</v>
       </c>
       <c r="G8">
-        <v>2.055559947192231</v>
+        <v>2.061499280540913</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.64578817566264</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.88071231367879</v>
+        <v>17.41991951226795</v>
       </c>
       <c r="L8">
-        <v>29.2352790916002</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>29.26585805543023</v>
+      </c>
+      <c r="N8">
+        <v>13.58670520787389</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.48686592236645</v>
+        <v>23.35124578668176</v>
       </c>
       <c r="C9">
-        <v>14.7710973988987</v>
+        <v>15.76397814944561</v>
       </c>
       <c r="D9">
-        <v>4.284732971086676</v>
+        <v>3.747243093388283</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.25693266215704</v>
+        <v>39.14394691623576</v>
       </c>
       <c r="G9">
-        <v>2.025226806337441</v>
+        <v>2.033940079933085</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.45315602259664</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.88286560588709</v>
+        <v>20.35706517170777</v>
       </c>
       <c r="L9">
-        <v>34.73066192493594</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.91419543676576</v>
+      </c>
+      <c r="N9">
+        <v>13.34233866847531</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.95675449151016</v>
+        <v>25.67299812687902</v>
       </c>
       <c r="C10">
-        <v>16.22475891172868</v>
+        <v>17.30792668822514</v>
       </c>
       <c r="D10">
-        <v>4.280078372551753</v>
+        <v>3.620414739618028</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>47.05926584482176</v>
+        <v>42.38740564369557</v>
       </c>
       <c r="G10">
-        <v>2.002904121205996</v>
+        <v>2.013820706688974</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>30.56217599163626</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.93445719453278</v>
+        <v>22.34656330423937</v>
       </c>
       <c r="L10">
-        <v>38.6114219680679</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>38.9755606559976</v>
+      </c>
+      <c r="N10">
+        <v>13.20377887700141</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.04705953277446</v>
+        <v>26.6906556210311</v>
       </c>
       <c r="C11">
-        <v>16.86356150134059</v>
+        <v>17.98521224347048</v>
       </c>
       <c r="D11">
-        <v>4.284748626297155</v>
+        <v>3.56489406888415</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>48.78432169539359</v>
+        <v>43.85981016199371</v>
       </c>
       <c r="G11">
-        <v>1.992626591623336</v>
+        <v>2.004600782912789</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.53644725807974</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.83949448124593</v>
+        <v>23.21858269782214</v>
       </c>
       <c r="L11">
-        <v>40.36265963715584</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>40.83621289413041</v>
+      </c>
+      <c r="N11">
+        <v>13.15182022581074</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.45583495447595</v>
+        <v>27.07087877467152</v>
       </c>
       <c r="C12">
-        <v>17.10252297342194</v>
+        <v>18.23834907263338</v>
       </c>
       <c r="D12">
-        <v>4.287691099764027</v>
+        <v>3.544251174377106</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.43783578586093</v>
+        <v>44.4176145932479</v>
       </c>
       <c r="G12">
-        <v>1.988705067715779</v>
+        <v>2.001089465649473</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.90813136929138</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.17868093065406</v>
+        <v>23.5443916994968</v>
       </c>
       <c r="L12">
-        <v>41.02592920254357</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>41.54652627875117</v>
+      </c>
+      <c r="N12">
+        <v>13.13395992106638</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.36796775770916</v>
+        <v>26.98921252288276</v>
       </c>
       <c r="C13">
-        <v>17.05118387774448</v>
+        <v>18.18397520700042</v>
       </c>
       <c r="D13">
-        <v>4.28700156608136</v>
+        <v>3.548678660550113</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.29705912915139</v>
+        <v>44.29745688561153</v>
       </c>
       <c r="G13">
-        <v>1.989551175774506</v>
+        <v>2.001846768182779</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.82794822514358</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.10577852310239</v>
+        <v>23.47441280457526</v>
       </c>
       <c r="L13">
-        <v>40.88303713861412</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>41.3932172462996</v>
+      </c>
+      <c r="N13">
+        <v>13.13772173980358</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.08076747083227</v>
+        <v>26.72203733464858</v>
       </c>
       <c r="C14">
-        <v>16.88327806060611</v>
+        <v>18.00610314956422</v>
       </c>
       <c r="D14">
-        <v>4.284965893522436</v>
+        <v>3.563187637006175</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.83807464942705</v>
+        <v>43.90569137935685</v>
       </c>
       <c r="G14">
-        <v>1.992304637637507</v>
+        <v>2.004312372032989</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.56696657255358</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.86746691278167</v>
+        <v>23.24547334280112</v>
       </c>
       <c r="L14">
-        <v>40.417210721171</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>40.89450930565561</v>
+      </c>
+      <c r="N14">
+        <v>13.15031304668256</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.90433781274947</v>
+        <v>26.55772817287541</v>
       </c>
       <c r="C15">
-        <v>16.78005764210463</v>
+        <v>17.89672551554764</v>
       </c>
       <c r="D15">
-        <v>4.283878455284479</v>
+        <v>3.572126950680303</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>48.55700249304041</v>
+        <v>43.66577967172904</v>
       </c>
       <c r="G15">
-        <v>1.993986951791088</v>
+        <v>2.005819682669284</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.40748753809117</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.72105180374431</v>
+        <v>23.10467863056409</v>
       </c>
       <c r="L15">
-        <v>40.13196622496315</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>40.58991820740928</v>
+      </c>
+      <c r="N15">
+        <v>13.15826928693665</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.88488655502495</v>
+        <v>25.60574919217061</v>
       </c>
       <c r="C16">
-        <v>16.18258335557222</v>
+        <v>17.26318210160284</v>
       </c>
       <c r="D16">
-        <v>4.279925743118825</v>
+        <v>3.62409226708029</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.9465090461603</v>
+        <v>42.29117032301594</v>
       </c>
       <c r="G16">
-        <v>2.003572342619349</v>
+        <v>2.01442107336556</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>30.49885172257523</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.87478551136136</v>
+        <v>22.28893843857168</v>
       </c>
       <c r="L16">
-        <v>38.4968618860519</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>38.85452648860191</v>
+      </c>
+      <c r="N16">
+        <v>13.20741550348329</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.2514125235959</v>
+        <v>25.01213797105662</v>
       </c>
       <c r="C17">
-        <v>15.81048966207095</v>
+        <v>16.86828237785104</v>
       </c>
       <c r="D17">
-        <v>4.279367798684718</v>
+        <v>3.656570230290432</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.95790438539918</v>
+        <v>41.44750217061772</v>
       </c>
       <c r="G17">
-        <v>2.009413444751247</v>
+        <v>2.019673920036433</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>29.94561171612894</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.34874048961704</v>
+        <v>21.7802792438764</v>
       </c>
       <c r="L17">
-        <v>37.49152943656077</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>37.79563748485354</v>
+      </c>
+      <c r="N17">
+        <v>13.24054800648816</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.88387660465228</v>
+        <v>24.66705569476805</v>
       </c>
       <c r="C18">
-        <v>15.5943357238362</v>
+        <v>16.63876917889149</v>
       </c>
       <c r="D18">
-        <v>4.279671802909396</v>
+        <v>3.67545004778373</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>45.3887740989654</v>
+        <v>40.96190274809799</v>
       </c>
       <c r="G18">
-        <v>2.012762377081361</v>
+        <v>2.022689595420856</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>29.62875442888895</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.04347799529635</v>
+        <v>21.48458131506647</v>
       </c>
       <c r="L18">
-        <v>36.9118036170762</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>37.18753895246695</v>
+      </c>
+      <c r="N18">
+        <v>13.26063174608652</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.7588706943021</v>
+        <v>24.54957832551201</v>
       </c>
       <c r="C19">
-        <v>15.52077477200973</v>
+        <v>16.56064412672158</v>
       </c>
       <c r="D19">
-        <v>4.279876678312887</v>
+        <v>3.681874932352815</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>45.19596506428943</v>
+        <v>40.79741199675849</v>
       </c>
       <c r="G19">
-        <v>2.013894753167266</v>
+        <v>2.023709958459699</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>29.5216888704059</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.939643938334</v>
+        <v>21.3839158448424</v>
       </c>
       <c r="L19">
-        <v>36.715206000751</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>36.9817122993036</v>
+      </c>
+      <c r="N19">
+        <v>13.26760192909092</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.31917135021846</v>
+        <v>25.07570427940314</v>
       </c>
       <c r="C20">
-        <v>15.85031871457647</v>
+        <v>16.91056435925019</v>
       </c>
       <c r="D20">
-        <v>4.279361211189533</v>
+        <v>3.653091837229669</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>46.06319013417797</v>
+        <v>41.53734367194687</v>
       </c>
       <c r="G20">
-        <v>2.008792837300789</v>
+        <v>2.019115393797188</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.00436139806395</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.40501432576271</v>
+        <v>21.83474858790974</v>
       </c>
       <c r="L20">
-        <v>37.59868857350365</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>37.90823621751051</v>
+      </c>
+      <c r="N20">
+        <v>13.23691323185811</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.16523026203306</v>
+        <v>26.80064919917868</v>
       </c>
       <c r="C21">
-        <v>16.93267326254239</v>
+        <v>18.05843669592306</v>
       </c>
       <c r="D21">
-        <v>4.28553017208903</v>
+        <v>3.558914973311107</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.97287295985555</v>
+        <v>44.02074909750131</v>
       </c>
       <c r="G21">
-        <v>1.991496792276513</v>
+        <v>2.003588799778323</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.64354266360546</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.93755589603295</v>
+        <v>23.31283498334085</v>
       </c>
       <c r="L21">
-        <v>40.55401234991628</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>41.04079929391936</v>
+      </c>
+      <c r="N21">
+        <v>13.14656343204764</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.34827031343357</v>
+        <v>27.89826884161454</v>
       </c>
       <c r="C22">
-        <v>17.62309613454131</v>
+        <v>18.78934622248549</v>
       </c>
       <c r="D22">
-        <v>4.29652923487571</v>
+        <v>3.499640115648806</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.96666472264678</v>
+        <v>45.64572550243027</v>
       </c>
       <c r="G22">
-        <v>1.980012413231254</v>
+        <v>1.993318258254778</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.73131512512101</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.91890607978342</v>
+        <v>24.25337177366119</v>
       </c>
       <c r="L22">
-        <v>42.4875734135407</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>43.12436068957346</v>
+      </c>
+      <c r="N22">
+        <v>13.09822952256798</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.71874162339903</v>
+        <v>27.31501879985837</v>
       </c>
       <c r="C23">
-        <v>17.2560460498675</v>
+        <v>18.40091136357026</v>
       </c>
       <c r="D23">
-        <v>4.289944320460207</v>
+        <v>3.531038553163503</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.88376610045437</v>
+        <v>44.77796243924119</v>
       </c>
       <c r="G23">
-        <v>1.986163034360639</v>
+        <v>1.998815206295572</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.14898192440382</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.39678946717562</v>
+        <v>23.75359247611009</v>
       </c>
       <c r="L23">
-        <v>41.4545451097996</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>42.00735601541239</v>
+      </c>
+      <c r="N23">
+        <v>13.12296130285867</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.28854804787066</v>
+        <v>25.04697783931829</v>
       </c>
       <c r="C24">
-        <v>15.83231897457384</v>
+        <v>16.8914564200556</v>
       </c>
       <c r="D24">
-        <v>4.279362257741094</v>
+        <v>3.65466377633261</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>46.01559290679931</v>
+        <v>41.49672813093323</v>
       </c>
       <c r="G24">
-        <v>2.009073441700359</v>
+        <v>2.019367916031471</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>29.97779694809528</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.37958178465903</v>
+        <v>21.81013318597386</v>
       </c>
       <c r="L24">
-        <v>37.55024752320816</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>37.85732851099517</v>
+      </c>
+      <c r="N24">
+        <v>13.238553304687</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.54393942557815</v>
+        <v>22.45976590465403</v>
       </c>
       <c r="C25">
-        <v>14.21413336440504</v>
+        <v>15.17160091473875</v>
       </c>
       <c r="D25">
-        <v>4.291353076333669</v>
+        <v>3.795531080543529</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>41.84796323950926</v>
+        <v>37.94373504902109</v>
       </c>
       <c r="G25">
-        <v>2.033405771077917</v>
+        <v>2.041345602332459</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.68666019086867</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>20.09929469665632</v>
+        <v>19.59313831926209</v>
       </c>
       <c r="L25">
-        <v>33.27721330566485</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>33.41046532307979</v>
+      </c>
+      <c r="N25">
+        <v>13.40189786827608</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.42143904703556</v>
+        <v>14.87530518387539</v>
       </c>
       <c r="C2">
-        <v>13.81801869488375</v>
+        <v>6.546370605206969</v>
       </c>
       <c r="D2">
-        <v>3.904109728569217</v>
+        <v>4.742992555369351</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.30260502018796</v>
+        <v>22.36285711286385</v>
       </c>
       <c r="G2">
-        <v>2.057648705915404</v>
+        <v>30.24443212125975</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.5101505751547</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.1363497154903</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.84633256212148</v>
+        <v>12.02096837462467</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.094410149542725</v>
       </c>
       <c r="M2">
-        <v>30.06521786860193</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.54886565479868</v>
+        <v>12.8175429342697</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.95175454679311</v>
+        <v>13.85200475717863</v>
       </c>
       <c r="C3">
-        <v>12.8427140481539</v>
+        <v>6.371436666553959</v>
       </c>
       <c r="D3">
-        <v>3.980260584238858</v>
+        <v>4.673002859953988</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.49590931814092</v>
+        <v>21.84631235094835</v>
       </c>
       <c r="G3">
-        <v>2.068881498535094</v>
+        <v>29.49822965944434</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.49353906755086</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.09623442760286</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.58665388762394</v>
+        <v>11.26566455457767</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.808848571007831</v>
       </c>
       <c r="M3">
-        <v>27.72097776689033</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.66253019159022</v>
+        <v>13.03207414840151</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.00435666806334</v>
+        <v>13.18748516980149</v>
       </c>
       <c r="C4">
-        <v>12.21425652923271</v>
+        <v>6.261346787718644</v>
       </c>
       <c r="D4">
-        <v>4.02819154247951</v>
+        <v>4.629078545045029</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.37932778121517</v>
+        <v>21.54276464368866</v>
       </c>
       <c r="G4">
-        <v>2.07589858173715</v>
+        <v>29.06151918961196</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.49037484671321</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>17.08478339737792</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.77449939982094</v>
+        <v>10.77655765933111</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.633177823263626</v>
       </c>
       <c r="M4">
-        <v>26.23534843063208</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.73854864891131</v>
+        <v>13.16676344836241</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.60677321725611</v>
+        <v>12.93405709478895</v>
       </c>
       <c r="C5">
-        <v>11.9505698244209</v>
+        <v>6.215835616056191</v>
       </c>
       <c r="D5">
-        <v>4.048009767329988</v>
+        <v>4.610950655736358</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.92277867656917</v>
+        <v>21.42256561726509</v>
       </c>
       <c r="G5">
-        <v>2.078792116003793</v>
+        <v>28.88904763312566</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.49079500518179</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>17.0833123352105</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.43363208950963</v>
+        <v>10.57086648222139</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.561608155053509</v>
       </c>
       <c r="M5">
-        <v>25.61728706523518</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.77100007713764</v>
+        <v>13.22241799836237</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.54005419286926</v>
+        <v>12.89173337766253</v>
       </c>
       <c r="C6">
-        <v>11.90632289405342</v>
+        <v>6.208240135649418</v>
       </c>
       <c r="D6">
-        <v>4.051317636307231</v>
+        <v>4.60792705750629</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.84688729466906</v>
+        <v>21.40282002403847</v>
       </c>
       <c r="G6">
-        <v>2.079274743407134</v>
+        <v>28.86074295785498</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.49096628479624</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17.08325755316981</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.37642806351543</v>
+        <v>10.53632665351361</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.549728251583092</v>
       </c>
       <c r="M6">
-        <v>25.51386691803689</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.77647508680264</v>
+        <v>13.23170637287456</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.99904157132704</v>
+        <v>13.18374669334831</v>
       </c>
       <c r="C7">
-        <v>12.21073124491152</v>
+        <v>6.260735599140413</v>
       </c>
       <c r="D7">
-        <v>4.028457669749703</v>
+        <v>4.62883497639177</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.37317633387403</v>
+        <v>21.54112933646539</v>
       </c>
       <c r="G7">
-        <v>2.075937462478863</v>
+        <v>29.05917083042882</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.4903736697259</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>17.08475077845308</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.7699426821424</v>
+        <v>10.77380944860981</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.632212398325293</v>
       </c>
       <c r="M7">
-        <v>26.22706552695438</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.73898044965772</v>
+        <v>13.16751088908619</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.9239103225026</v>
+        <v>14.52994986792094</v>
       </c>
       <c r="C8">
-        <v>13.48779405057134</v>
+        <v>6.486623747947465</v>
       </c>
       <c r="D8">
-        <v>3.930116113202232</v>
+        <v>4.719063589599988</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.68130164550713</v>
+        <v>22.18197541701937</v>
       </c>
       <c r="G8">
-        <v>2.061499280540913</v>
+        <v>29.98274912914694</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.50292703812589</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.11971144532095</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.41991951226795</v>
+        <v>11.76579582488975</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.996076550422981</v>
       </c>
       <c r="M8">
-        <v>29.26585805543023</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.58670520787389</v>
+        <v>12.89091095772726</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.35124578668176</v>
+        <v>16.88534348554283</v>
       </c>
       <c r="C9">
-        <v>15.76397814944561</v>
+        <v>6.907384027132882</v>
       </c>
       <c r="D9">
-        <v>3.747243093388283</v>
+        <v>4.888017909186725</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>39.14394691623576</v>
+        <v>23.54302658056632</v>
       </c>
       <c r="G9">
-        <v>2.033940079933085</v>
+        <v>31.9593945311887</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.58601437122474</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.29807336060439</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.35706517170777</v>
+        <v>13.51058740739503</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.702932079561702</v>
       </c>
       <c r="M9">
-        <v>34.91419543676576</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.34233866847531</v>
+        <v>12.37100943272608</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.67299812687902</v>
+        <v>18.44644390993859</v>
       </c>
       <c r="C10">
-        <v>17.30792668822514</v>
+        <v>7.201960760388159</v>
       </c>
       <c r="D10">
-        <v>3.620414739618028</v>
+        <v>5.006722448988433</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>42.38740564369557</v>
+        <v>24.60161493170678</v>
       </c>
       <c r="G10">
-        <v>2.013820706688974</v>
+        <v>33.50588893335635</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.68630817119523</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>17.50305951227623</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.34656330423937</v>
+        <v>14.67174482608502</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.21350081167701</v>
       </c>
       <c r="M10">
-        <v>38.9755606559976</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>13.20377887700141</v>
+        <v>12.00126679967441</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.6906556210311</v>
+        <v>19.12076413647482</v>
       </c>
       <c r="C11">
-        <v>17.98521224347048</v>
+        <v>7.332664249955537</v>
       </c>
       <c r="D11">
-        <v>3.56489406888415</v>
+        <v>5.059437155101101</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>43.85981016199371</v>
+        <v>25.09491761989763</v>
       </c>
       <c r="G11">
-        <v>2.004600782912789</v>
+        <v>34.22854542932211</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.74122209267924</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>17.61382049910363</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.21858269782214</v>
+        <v>15.17422769422559</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.443088687957388</v>
       </c>
       <c r="M11">
-        <v>40.83621289413041</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>13.15182022581074</v>
+        <v>11.8353744165304</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.07087877467152</v>
+        <v>19.37103715637789</v>
       </c>
       <c r="C12">
-        <v>18.23834907263338</v>
+        <v>7.381675648028348</v>
       </c>
       <c r="D12">
-        <v>3.544251174377106</v>
+        <v>5.079205612415193</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>44.4176145932479</v>
+        <v>25.28333224545634</v>
       </c>
       <c r="G12">
-        <v>2.001089465649473</v>
+        <v>34.50485031691561</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.76341454302392</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>17.65839623316485</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>23.5443916994968</v>
+        <v>15.36084875178496</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.529592166303139</v>
       </c>
       <c r="M12">
-        <v>41.54652627875117</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>13.13395992106638</v>
+        <v>11.77285780121221</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.98921252288276</v>
+        <v>19.31736096843071</v>
       </c>
       <c r="C13">
-        <v>18.18397520700042</v>
+        <v>7.371141753777775</v>
       </c>
       <c r="D13">
-        <v>3.548678660550113</v>
+        <v>5.074956858988489</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>44.29745688561153</v>
+        <v>25.24268321453861</v>
       </c>
       <c r="G13">
-        <v>2.001846768182779</v>
+        <v>34.44522667681566</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.75857185352388</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>17.64867714701938</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.47441280457526</v>
+        <v>15.32081854322847</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.510982225127918</v>
       </c>
       <c r="M13">
-        <v>41.3932172462996</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>13.13772173980358</v>
+        <v>11.78630884906696</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.72203733464858</v>
+        <v>19.14145556438711</v>
       </c>
       <c r="C14">
-        <v>18.00610314956422</v>
+        <v>7.336706166932047</v>
       </c>
       <c r="D14">
-        <v>3.563187637006175</v>
+        <v>5.061067443324481</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>43.90569137935685</v>
+        <v>25.11038670726717</v>
       </c>
       <c r="G14">
-        <v>2.004312372032989</v>
+        <v>34.25122460327658</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.74301951235915</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>17.61743435411054</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.24547334280112</v>
+        <v>15.18965417812858</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.450214390016809</v>
       </c>
       <c r="M14">
-        <v>40.89450930565561</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>13.15031304668256</v>
+        <v>11.83022522580184</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.55772817287541</v>
+        <v>19.03304948637123</v>
       </c>
       <c r="C15">
-        <v>17.89672551554764</v>
+        <v>7.315550259458306</v>
       </c>
       <c r="D15">
-        <v>3.572126950680303</v>
+        <v>5.052534331019919</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>43.66577967172904</v>
+        <v>25.02955905566194</v>
       </c>
       <c r="G15">
-        <v>2.005819682669284</v>
+        <v>34.13273516042833</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.73367711459143</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>17.59864349612472</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.10467863056409</v>
+        <v>15.1088371415941</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.41293412687336</v>
       </c>
       <c r="M15">
-        <v>40.58991820740928</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>13.15826928693665</v>
+        <v>11.85716390553485</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.60574919217061</v>
+        <v>18.40166081418819</v>
       </c>
       <c r="C16">
-        <v>17.26318210160284</v>
+        <v>7.193351749356139</v>
       </c>
       <c r="D16">
-        <v>3.62409226708029</v>
+        <v>5.003250811027623</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>42.29117032301594</v>
+        <v>24.56960592121882</v>
       </c>
       <c r="G16">
-        <v>2.01442107336556</v>
+        <v>33.45903775499581</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.68291164617411</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>17.49618326888749</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.28893843857168</v>
+        <v>14.6383920441133</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.198438226933131</v>
       </c>
       <c r="M16">
-        <v>38.85452648860191</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.20741550348329</v>
+        <v>12.01215225545237</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.01213797105662</v>
+        <v>18.00519928904421</v>
       </c>
       <c r="C17">
-        <v>16.86828237785104</v>
+        <v>7.117534308672736</v>
       </c>
       <c r="D17">
-        <v>3.656570230290432</v>
+        <v>4.972681572377344</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>41.44750217061772</v>
+        <v>24.29038940314957</v>
       </c>
       <c r="G17">
-        <v>2.019673920036433</v>
+        <v>33.05057209674233</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.6541921145359</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>17.43789485096984</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>21.7802792438764</v>
+        <v>14.34322650928454</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.066126995121571</v>
       </c>
       <c r="M17">
-        <v>37.79563748485354</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>13.24054800648816</v>
+        <v>12.10780328705168</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.66705569476805</v>
+        <v>17.77378771429442</v>
       </c>
       <c r="C18">
-        <v>16.63876917889149</v>
+        <v>7.073615710800938</v>
       </c>
       <c r="D18">
-        <v>3.67545004778373</v>
+        <v>4.954978533052627</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>40.96190274809799</v>
+        <v>24.13090104199972</v>
       </c>
       <c r="G18">
-        <v>2.022689595420856</v>
+        <v>32.81744107931893</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.63854411644238</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.40601048032681</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.48458131506647</v>
+        <v>14.17103007046914</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.989775983004805</v>
       </c>
       <c r="M18">
-        <v>37.18753895246695</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>13.26063174608652</v>
+        <v>12.16303798651493</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.54957832551201</v>
+        <v>17.69485342435227</v>
       </c>
       <c r="C19">
-        <v>16.56064412672158</v>
+        <v>7.058692631255878</v>
       </c>
       <c r="D19">
-        <v>3.681874932352815</v>
+        <v>4.948964180376864</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>40.79741199675849</v>
+        <v>24.0770941346018</v>
       </c>
       <c r="G19">
-        <v>2.023709958459699</v>
+        <v>32.73882079613598</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.63339363017176</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>17.39549338741681</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.3839158448424</v>
+        <v>14.1123096188945</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.963883823456783</v>
       </c>
       <c r="M19">
-        <v>36.9817122993036</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.26760192909092</v>
+        <v>12.18177792163285</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.07570427940314</v>
+        <v>18.04775230826979</v>
       </c>
       <c r="C20">
-        <v>16.91056435925019</v>
+        <v>7.125637403810432</v>
       </c>
       <c r="D20">
-        <v>3.653091837229669</v>
+        <v>4.975948248168341</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>41.53734367194687</v>
+        <v>24.31999823580471</v>
       </c>
       <c r="G20">
-        <v>2.019115393797188</v>
+        <v>33.09386768205083</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.65715879287167</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>17.44392901570451</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>21.83474858790974</v>
+        <v>14.37489807761565</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.080237943117487</v>
       </c>
       <c r="M20">
-        <v>37.90823621751051</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>13.23691323185811</v>
+        <v>12.09759863233895</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.80064919917868</v>
+        <v>19.1932604286664</v>
       </c>
       <c r="C21">
-        <v>18.05843669592306</v>
+        <v>7.346833897090257</v>
       </c>
       <c r="D21">
-        <v>3.558914973311107</v>
+        <v>5.06515241877853</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.02074909750131</v>
+        <v>25.14920221864105</v>
       </c>
       <c r="G21">
-        <v>2.003588799778323</v>
+        <v>34.30813651079887</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.74754918547537</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>17.62653875896351</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.31283498334085</v>
+        <v>15.22827925415977</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.46807558536573</v>
       </c>
       <c r="M21">
-        <v>41.04079929391936</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>13.14656343204764</v>
+        <v>11.81731792283893</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.89826884161454</v>
+        <v>19.91235856861617</v>
       </c>
       <c r="C22">
-        <v>18.78934622248549</v>
+        <v>7.488580836561945</v>
       </c>
       <c r="D22">
-        <v>3.499640115648806</v>
+        <v>5.122321203497496</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>45.64572550243027</v>
+        <v>25.70050166330871</v>
       </c>
       <c r="G22">
-        <v>1.993318258254778</v>
+        <v>35.11714695115427</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.81480024864102</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>17.7612833200121</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.25337177366119</v>
+        <v>15.76471316072673</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.718989066747111</v>
       </c>
       <c r="M22">
-        <v>43.12436068957346</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>13.09822952256798</v>
+        <v>11.63589180622802</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.31501879985837</v>
+        <v>19.53124112333529</v>
       </c>
       <c r="C23">
-        <v>18.40091136357026</v>
+        <v>7.413187545018235</v>
       </c>
       <c r="D23">
-        <v>3.531038553163503</v>
+        <v>5.091915410002929</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>44.77796243924119</v>
+        <v>25.40542811280176</v>
       </c>
       <c r="G23">
-        <v>1.998815206295572</v>
+        <v>34.68398143820612</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.77813860678641</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>17.68792130830764</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>23.75359247611009</v>
+        <v>15.48034192745893</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.585320651255739</v>
       </c>
       <c r="M23">
-        <v>42.00735601541239</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>13.12296130285867</v>
+        <v>11.73257152845439</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.04697783931829</v>
+        <v>18.02852493510312</v>
       </c>
       <c r="C24">
-        <v>16.8914564200556</v>
+        <v>7.121975022125905</v>
       </c>
       <c r="D24">
-        <v>3.65466377633261</v>
+        <v>4.974471783239935</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>41.49672813093323</v>
+        <v>24.30660884670264</v>
       </c>
       <c r="G24">
-        <v>2.019367916031471</v>
+        <v>33.07428844059227</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.65581487347363</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>17.44119591262066</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>21.81013318597386</v>
+        <v>14.36058715737576</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.073859262554596</v>
       </c>
       <c r="M24">
-        <v>37.85732851099517</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>13.238553304687</v>
+        <v>12.10221139570107</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.45976590465403</v>
+        <v>16.27819806948982</v>
       </c>
       <c r="C25">
-        <v>15.17160091473875</v>
+        <v>6.796052124973541</v>
       </c>
       <c r="D25">
-        <v>3.795531080543529</v>
+        <v>4.84322552333925</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.94373504902109</v>
+        <v>23.16416977328685</v>
       </c>
       <c r="G25">
-        <v>2.041345602332459</v>
+        <v>31.40762128715652</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.55690374671317</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.23733441268171</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.59313831926209</v>
+        <v>13.05991304545041</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.512946452447451</v>
       </c>
       <c r="M25">
-        <v>33.41046532307979</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>13.40189786827608</v>
+        <v>12.50939730375716</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.87530518387539</v>
+        <v>13.14676527569973</v>
       </c>
       <c r="C2">
-        <v>6.546370605206969</v>
+        <v>7.396519030095789</v>
       </c>
       <c r="D2">
-        <v>4.742992555369351</v>
+        <v>5.825949858745518</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.36285711286385</v>
+        <v>29.02658571147445</v>
       </c>
       <c r="G2">
-        <v>30.24443212125975</v>
+        <v>37.03474423979916</v>
       </c>
       <c r="H2">
-        <v>10.5101505751547</v>
+        <v>16.30466422911785</v>
       </c>
       <c r="I2">
-        <v>17.1363497154903</v>
+        <v>25.56292635420807</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.02096837462467</v>
+        <v>10.29699371270513</v>
       </c>
       <c r="L2">
-        <v>8.094410149542725</v>
+        <v>10.7503203325334</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.8175429342697</v>
+        <v>19.7779739676484</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.85200475717863</v>
+        <v>12.89401322144127</v>
       </c>
       <c r="C3">
-        <v>6.371436666553959</v>
+        <v>7.34115751824093</v>
       </c>
       <c r="D3">
-        <v>4.673002859953988</v>
+        <v>5.800802499780209</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.84631235094835</v>
+        <v>29.01737789483753</v>
       </c>
       <c r="G3">
-        <v>29.49822965944434</v>
+        <v>37.00580167057596</v>
       </c>
       <c r="H3">
-        <v>10.49353906755086</v>
+        <v>16.34274514529553</v>
       </c>
       <c r="I3">
-        <v>17.09623442760286</v>
+        <v>25.62641996580857</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.26566455457767</v>
+        <v>10.12230679072458</v>
       </c>
       <c r="L3">
-        <v>7.808848571007831</v>
+        <v>10.72461861042657</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.03207414840151</v>
+        <v>19.84055737437035</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.18748516980149</v>
+        <v>12.73930919593043</v>
       </c>
       <c r="C4">
-        <v>6.261346787718644</v>
+        <v>7.306336008312418</v>
       </c>
       <c r="D4">
-        <v>4.629078545045029</v>
+        <v>5.785002058158153</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.54276464368866</v>
+        <v>29.01906448875049</v>
       </c>
       <c r="G4">
-        <v>29.06151918961196</v>
+        <v>36.99879052136627</v>
       </c>
       <c r="H4">
-        <v>10.49037484671321</v>
+        <v>16.36885005515901</v>
       </c>
       <c r="I4">
-        <v>17.08478339737792</v>
+        <v>25.67029134008377</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.77655765933111</v>
+        <v>10.01574874331737</v>
       </c>
       <c r="L4">
-        <v>7.633177823263626</v>
+        <v>10.71100439704811</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.16676344836241</v>
+        <v>19.88078248782664</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.93405709478895</v>
+        <v>12.67647966989863</v>
       </c>
       <c r="C5">
-        <v>6.215835616056191</v>
+        <v>7.291941566876563</v>
       </c>
       <c r="D5">
-        <v>4.610950655736358</v>
+        <v>5.778474110809755</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.42256561726509</v>
+        <v>29.02159819719889</v>
       </c>
       <c r="G5">
-        <v>28.88904763312566</v>
+        <v>36.99863967698509</v>
       </c>
       <c r="H5">
-        <v>10.49079500518179</v>
+        <v>16.38017210570258</v>
       </c>
       <c r="I5">
-        <v>17.0833123352105</v>
+        <v>25.68939578504694</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.57086648222139</v>
+        <v>9.972560302759465</v>
       </c>
       <c r="L5">
-        <v>7.561608155053509</v>
+        <v>10.70600537531507</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.22241799836237</v>
+        <v>19.89762808397705</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.89173337766253</v>
+        <v>12.66606246722629</v>
       </c>
       <c r="C6">
-        <v>6.208240135649418</v>
+        <v>7.289539157815458</v>
       </c>
       <c r="D6">
-        <v>4.60792705750629</v>
+        <v>5.777384805889787</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.40282002403847</v>
+        <v>29.02213043032839</v>
       </c>
       <c r="G6">
-        <v>28.86074295785498</v>
+        <v>36.99877805343086</v>
       </c>
       <c r="H6">
-        <v>10.49096628479624</v>
+        <v>16.38209342072504</v>
       </c>
       <c r="I6">
-        <v>17.08325755316981</v>
+        <v>25.69264207650778</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.53632665351361</v>
+        <v>9.965404798425771</v>
       </c>
       <c r="L6">
-        <v>7.549728251583092</v>
+        <v>10.70520855059187</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.23170637287456</v>
+        <v>19.90045271165898</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.18374669334831</v>
+        <v>12.73846086857808</v>
       </c>
       <c r="C7">
-        <v>6.260735599140413</v>
+        <v>7.306142701916013</v>
       </c>
       <c r="D7">
-        <v>4.62883497639177</v>
+        <v>5.784914379121093</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.54112933646539</v>
+        <v>29.01909118330583</v>
       </c>
       <c r="G7">
-        <v>29.05917083042882</v>
+        <v>36.99877753044288</v>
       </c>
       <c r="H7">
-        <v>10.4903736697259</v>
+        <v>16.36899997936396</v>
       </c>
       <c r="I7">
-        <v>17.08475077845308</v>
+        <v>25.67054402618308</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.77380944860981</v>
+        <v>10.01516526035106</v>
       </c>
       <c r="L7">
-        <v>7.632212398325293</v>
+        <v>10.71093475113881</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.16751088908619</v>
+        <v>19.88100783543063</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.52994986792094</v>
+        <v>13.05956962300725</v>
       </c>
       <c r="C8">
-        <v>6.486623747947465</v>
+        <v>7.377604974568344</v>
       </c>
       <c r="D8">
-        <v>4.719063589599988</v>
+        <v>5.817354544365632</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.18197541701937</v>
+        <v>29.02188814685852</v>
       </c>
       <c r="G8">
-        <v>29.98274912914694</v>
+        <v>37.02253274224502</v>
       </c>
       <c r="H8">
-        <v>10.50292703812589</v>
+        <v>16.31722897862855</v>
       </c>
       <c r="I8">
-        <v>17.11971144532095</v>
+        <v>25.5838036107255</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.76579582488975</v>
+        <v>10.23665139060119</v>
       </c>
       <c r="L8">
-        <v>7.996076550422981</v>
+        <v>10.74101123931089</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.89091095772726</v>
+        <v>19.79918017342904</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.88534348554283</v>
+        <v>13.68920371570151</v>
       </c>
       <c r="C9">
-        <v>6.907384027132882</v>
+        <v>7.510984570172245</v>
       </c>
       <c r="D9">
-        <v>4.888017909186725</v>
+        <v>5.878056588540887</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.54302658056632</v>
+        <v>29.08553383864254</v>
       </c>
       <c r="G9">
-        <v>31.9593945311887</v>
+        <v>37.15435991836791</v>
       </c>
       <c r="H9">
-        <v>10.58601437122474</v>
+        <v>16.23734038386614</v>
       </c>
       <c r="I9">
-        <v>17.29807336060439</v>
+        <v>25.45256557100487</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.51058740739503</v>
+        <v>10.67399093764638</v>
       </c>
       <c r="L9">
-        <v>8.702932079561702</v>
+        <v>10.81698448479292</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.37100943272608</v>
+        <v>19.65292963791421</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.44644390993859</v>
+        <v>14.14668318951728</v>
       </c>
       <c r="C10">
-        <v>7.201960760388159</v>
+        <v>7.604628225906453</v>
       </c>
       <c r="D10">
-        <v>5.006722448988433</v>
+        <v>5.920803658189908</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.60161493170678</v>
+        <v>29.16756566078501</v>
       </c>
       <c r="G10">
-        <v>33.50588893335635</v>
+        <v>37.30285557633723</v>
       </c>
       <c r="H10">
-        <v>10.68630817119523</v>
+        <v>16.19187104050285</v>
       </c>
       <c r="I10">
-        <v>17.50305951227623</v>
+        <v>25.37995313214515</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.67174482608502</v>
+        <v>10.99379242631152</v>
       </c>
       <c r="L10">
-        <v>9.21350081167701</v>
+        <v>10.88286447254209</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.00126679967441</v>
+        <v>19.55406108211008</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.12076413647482</v>
+        <v>14.35268232055382</v>
       </c>
       <c r="C11">
-        <v>7.332664249955537</v>
+        <v>7.646236808759886</v>
       </c>
       <c r="D11">
-        <v>5.059437155101101</v>
+        <v>5.939832839892839</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.09491761989763</v>
+        <v>29.21247609250133</v>
       </c>
       <c r="G11">
-        <v>34.22854542932211</v>
+        <v>37.38150382367404</v>
       </c>
       <c r="H11">
-        <v>10.74122209267924</v>
+        <v>16.17406408142863</v>
       </c>
       <c r="I11">
-        <v>17.61382049910363</v>
+        <v>25.35211190550207</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.17422769422559</v>
+        <v>11.13827272452698</v>
       </c>
       <c r="L11">
-        <v>9.443088687957388</v>
+        <v>10.91494668328061</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.8353744165304</v>
+        <v>19.51092894345495</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.37103715637789</v>
+        <v>14.43030651757416</v>
       </c>
       <c r="C12">
-        <v>7.381675648028348</v>
+        <v>7.661846460236714</v>
       </c>
       <c r="D12">
-        <v>5.079205612415193</v>
+        <v>5.946977411873245</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.28333224545634</v>
+        <v>29.23056656527195</v>
       </c>
       <c r="G12">
-        <v>34.50485031691561</v>
+        <v>37.41286744490465</v>
       </c>
       <c r="H12">
-        <v>10.76341454302392</v>
+        <v>16.1677352247596</v>
       </c>
       <c r="I12">
-        <v>17.65839623316485</v>
+        <v>25.34231709571427</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.36084875178496</v>
+        <v>11.19278631251635</v>
       </c>
       <c r="L12">
-        <v>9.529592166303139</v>
+        <v>10.92739230630067</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.77285780121221</v>
+        <v>19.49485974616274</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.31736096843071</v>
+        <v>14.41360702283685</v>
       </c>
       <c r="C13">
-        <v>7.371141753777775</v>
+        <v>7.65849122929396</v>
       </c>
       <c r="D13">
-        <v>5.074956858988489</v>
+        <v>5.945441452690001</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.24268321453861</v>
+        <v>29.22662239627761</v>
       </c>
       <c r="G13">
-        <v>34.44522667681566</v>
+        <v>37.40604265809559</v>
       </c>
       <c r="H13">
-        <v>10.75857185352388</v>
+        <v>16.16907982605618</v>
       </c>
       <c r="I13">
-        <v>17.64867714701938</v>
+        <v>25.34439328858275</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.32081854322847</v>
+        <v>11.18105547904669</v>
       </c>
       <c r="L13">
-        <v>9.510982225127918</v>
+        <v>10.9246988362364</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.78630884906696</v>
+        <v>19.49830881103134</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.14145556438711</v>
+        <v>14.35907663071267</v>
       </c>
       <c r="C14">
-        <v>7.336706166932047</v>
+        <v>7.647523986352088</v>
       </c>
       <c r="D14">
-        <v>5.061067443324481</v>
+        <v>5.940421866258727</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.11038670726717</v>
+        <v>29.21394273545523</v>
       </c>
       <c r="G14">
-        <v>34.25122460327658</v>
+        <v>37.38405252881587</v>
       </c>
       <c r="H14">
-        <v>10.74301951235915</v>
+        <v>16.17353509772489</v>
       </c>
       <c r="I14">
-        <v>17.61743435411054</v>
+        <v>25.35129107951319</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.18965417812858</v>
+        <v>11.1427618600762</v>
       </c>
       <c r="L14">
-        <v>9.450214390016809</v>
+        <v>10.91596468617785</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.83022522580184</v>
+        <v>19.50960163612702</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.03304948637123</v>
+        <v>14.32562299657716</v>
       </c>
       <c r="C15">
-        <v>7.315550259458306</v>
+        <v>7.640787016389454</v>
       </c>
       <c r="D15">
-        <v>5.052534331019919</v>
+        <v>5.93733919013391</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.02955905566194</v>
+        <v>29.20631696516341</v>
       </c>
       <c r="G15">
-        <v>34.13273516042833</v>
+        <v>37.37078839256547</v>
       </c>
       <c r="H15">
-        <v>10.73367711459143</v>
+        <v>16.1763180418384</v>
       </c>
       <c r="I15">
-        <v>17.59864349612472</v>
+        <v>25.35561364122482</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.1088371415941</v>
+        <v>11.11927856181929</v>
       </c>
       <c r="L15">
-        <v>9.41293412687336</v>
+        <v>10.91065320013558</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.85716390553485</v>
+        <v>19.51655316644256</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.40166081418819</v>
+        <v>14.13317127806563</v>
       </c>
       <c r="C16">
-        <v>7.193351749356139</v>
+        <v>7.601888717287651</v>
       </c>
       <c r="D16">
-        <v>5.003250811027623</v>
+        <v>5.919551547760232</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.56960592121882</v>
+        <v>29.1647828018966</v>
       </c>
       <c r="G16">
-        <v>33.45903775499581</v>
+        <v>37.29793784312824</v>
       </c>
       <c r="H16">
-        <v>10.68291164617411</v>
+        <v>16.19309270998986</v>
       </c>
       <c r="I16">
-        <v>17.49618326888749</v>
+        <v>25.38187721520204</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.6383920441133</v>
+        <v>10.9843254986822</v>
       </c>
       <c r="L16">
-        <v>9.198438226933131</v>
+        <v>10.88080975055193</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.01215225545237</v>
+        <v>19.55691687293838</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.00519928904421</v>
+        <v>14.0145097191627</v>
       </c>
       <c r="C17">
-        <v>7.117534308672736</v>
+        <v>7.577769196517887</v>
       </c>
       <c r="D17">
-        <v>4.972681572377344</v>
+        <v>5.908531650791328</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.29038940314957</v>
+        <v>29.1412425391125</v>
       </c>
       <c r="G17">
-        <v>33.05057209674233</v>
+        <v>37.25607902904803</v>
       </c>
       <c r="H17">
-        <v>10.6541921145359</v>
+        <v>16.20412074589939</v>
       </c>
       <c r="I17">
-        <v>17.43789485096984</v>
+        <v>25.399319730948</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.34322650928454</v>
+        <v>10.90124089455918</v>
       </c>
       <c r="L17">
-        <v>9.066126995121571</v>
+        <v>10.86303807797659</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.10780328705168</v>
+        <v>19.58215011285565</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.77378771429442</v>
+        <v>13.9460645690482</v>
       </c>
       <c r="C18">
-        <v>7.073615710800938</v>
+        <v>7.563803312762356</v>
       </c>
       <c r="D18">
-        <v>4.954978533052627</v>
+        <v>5.902154164129223</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.13090104199972</v>
+        <v>29.12841813249021</v>
       </c>
       <c r="G18">
-        <v>32.81744107931893</v>
+        <v>37.23304845415499</v>
       </c>
       <c r="H18">
-        <v>10.63854411644238</v>
+        <v>16.21073457740152</v>
       </c>
       <c r="I18">
-        <v>17.40601048032681</v>
+        <v>25.40984067414247</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.17103007046914</v>
+        <v>10.8533618994404</v>
       </c>
       <c r="L18">
-        <v>8.989775983004805</v>
+        <v>10.85301562616146</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.16303798651493</v>
+        <v>19.59683720482418</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.69485342435227</v>
+        <v>13.9228593703936</v>
       </c>
       <c r="C19">
-        <v>7.058692631255878</v>
+        <v>7.559058865457214</v>
       </c>
       <c r="D19">
-        <v>4.948964180376864</v>
+        <v>5.899988179854004</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.0770941346018</v>
+        <v>29.12419909231547</v>
       </c>
       <c r="G19">
-        <v>32.73882079613598</v>
+        <v>37.22543066544464</v>
       </c>
       <c r="H19">
-        <v>10.63339363017176</v>
+        <v>16.21302040021769</v>
       </c>
       <c r="I19">
-        <v>17.39549338741681</v>
+        <v>25.41348672613048</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.1123096188945</v>
+        <v>10.83713697163815</v>
       </c>
       <c r="L19">
-        <v>8.963883823456783</v>
+        <v>10.84965664203136</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.18177792163285</v>
+        <v>19.60183985175004</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.04775230826979</v>
+        <v>14.02716213082251</v>
       </c>
       <c r="C20">
-        <v>7.125637403810432</v>
+        <v>7.58034641374669</v>
       </c>
       <c r="D20">
-        <v>4.975948248168341</v>
+        <v>5.909708798316113</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.31999823580471</v>
+        <v>29.14367446072509</v>
       </c>
       <c r="G20">
-        <v>33.09386768205083</v>
+        <v>37.26042686222875</v>
       </c>
       <c r="H20">
-        <v>10.65715879287167</v>
+        <v>16.20291876228526</v>
       </c>
       <c r="I20">
-        <v>17.44392901570451</v>
+        <v>25.39741237794005</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.37489807761565</v>
+        <v>10.91009520436587</v>
       </c>
       <c r="L20">
-        <v>9.080237943117487</v>
+        <v>10.86490932132816</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.09759863233895</v>
+        <v>19.57944603252158</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.1932604286664</v>
+        <v>14.37510454197813</v>
       </c>
       <c r="C21">
-        <v>7.346833897090257</v>
+        <v>7.650749343637451</v>
       </c>
       <c r="D21">
-        <v>5.06515241877853</v>
+        <v>5.941897917421235</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.14920221864105</v>
+        <v>29.21763771458297</v>
       </c>
       <c r="G21">
-        <v>34.30813651079887</v>
+        <v>37.39046877583941</v>
       </c>
       <c r="H21">
-        <v>10.74754918547537</v>
+        <v>16.17221523009872</v>
       </c>
       <c r="I21">
-        <v>17.62653875896351</v>
+        <v>25.349244716655</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.22827925415977</v>
+        <v>11.15401541756667</v>
       </c>
       <c r="L21">
-        <v>9.46807558536573</v>
+        <v>10.91852212157302</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.81731792283893</v>
+        <v>19.5062775033413</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.91235856861617</v>
+        <v>14.60023761679149</v>
       </c>
       <c r="C22">
-        <v>7.488580836561945</v>
+        <v>7.695905248543456</v>
       </c>
       <c r="D22">
-        <v>5.122321203497496</v>
+        <v>5.962577014626622</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.70050166330871</v>
+        <v>29.27228988311241</v>
       </c>
       <c r="G22">
-        <v>35.11714695115427</v>
+        <v>37.48466693627351</v>
       </c>
       <c r="H22">
-        <v>10.81480024864102</v>
+        <v>16.15456345750894</v>
       </c>
       <c r="I22">
-        <v>17.7612833200121</v>
+        <v>25.32212526448319</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.76471316072673</v>
+        <v>11.31225406710722</v>
       </c>
       <c r="L22">
-        <v>9.718989066747111</v>
+        <v>10.95528750328176</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.63589180622802</v>
+        <v>19.45999597198232</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.53124112333529</v>
+        <v>14.48031250348581</v>
       </c>
       <c r="C23">
-        <v>7.413187545018235</v>
+        <v>7.671884426658342</v>
       </c>
       <c r="D23">
-        <v>5.091915410002929</v>
+        <v>5.951573456350989</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.40542811280176</v>
+        <v>29.24254638311449</v>
       </c>
       <c r="G23">
-        <v>34.68398143820612</v>
+        <v>37.43355445236151</v>
       </c>
       <c r="H23">
-        <v>10.77813860678641</v>
+        <v>16.16376344265793</v>
       </c>
       <c r="I23">
-        <v>17.68792130830764</v>
+        <v>25.33619990152444</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.48034192745893</v>
+        <v>11.22792414380793</v>
       </c>
       <c r="L23">
-        <v>9.585320651255739</v>
+        <v>10.93550961525865</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.73257152845439</v>
+        <v>19.4845569019814</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.02852493510312</v>
+        <v>14.02144267033308</v>
       </c>
       <c r="C24">
-        <v>7.121975022125905</v>
+        <v>7.579181562683801</v>
       </c>
       <c r="D24">
-        <v>4.974471783239935</v>
+        <v>5.909176740623708</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.30660884670264</v>
+        <v>29.1425727792095</v>
       </c>
       <c r="G24">
-        <v>33.07428844059227</v>
+        <v>37.25845798297581</v>
       </c>
       <c r="H24">
-        <v>10.65581487347363</v>
+        <v>16.20346132663446</v>
       </c>
       <c r="I24">
-        <v>17.44119591262066</v>
+        <v>25.39827315663663</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.36058715737576</v>
+        <v>10.90609251729648</v>
       </c>
       <c r="L24">
-        <v>9.073859262554596</v>
+        <v>10.864062725153</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.10221139570107</v>
+        <v>19.58066798592012</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.27819806948982</v>
+        <v>13.51941344539757</v>
       </c>
       <c r="C25">
-        <v>6.796052124973541</v>
+        <v>7.475649330567028</v>
       </c>
       <c r="D25">
-        <v>4.84322552333925</v>
+        <v>5.86195468487805</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.16416977328685</v>
+        <v>29.06210330794293</v>
       </c>
       <c r="G25">
-        <v>31.40762128715652</v>
+        <v>37.10959506938585</v>
       </c>
       <c r="H25">
-        <v>10.55690374671317</v>
+        <v>16.2566323109937</v>
       </c>
       <c r="I25">
-        <v>17.23733441268171</v>
+        <v>25.48389591799637</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.05991304545041</v>
+        <v>10.5557080769031</v>
       </c>
       <c r="L25">
-        <v>8.512946452447451</v>
+        <v>10.79464118277395</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.50939730375716</v>
+        <v>19.69098128778839</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.14676527569973</v>
+        <v>14.8753051838754</v>
       </c>
       <c r="C2">
-        <v>7.396519030095789</v>
+        <v>6.546370605207086</v>
       </c>
       <c r="D2">
-        <v>5.825949858745518</v>
+        <v>4.742992555369412</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.02658571147445</v>
+        <v>22.3628571128638</v>
       </c>
       <c r="G2">
-        <v>37.03474423979916</v>
+        <v>30.24443212125973</v>
       </c>
       <c r="H2">
-        <v>16.30466422911785</v>
+        <v>10.51015057515468</v>
       </c>
       <c r="I2">
-        <v>25.56292635420807</v>
+        <v>17.13634971549028</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.29699371270513</v>
+        <v>12.0209683746247</v>
       </c>
       <c r="L2">
-        <v>10.7503203325334</v>
+        <v>8.094410149542778</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.7779739676484</v>
+        <v>12.81754293426967</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.89401322144127</v>
+        <v>13.85200475717865</v>
       </c>
       <c r="C3">
-        <v>7.34115751824093</v>
+        <v>6.371436666553709</v>
       </c>
       <c r="D3">
-        <v>5.800802499780209</v>
+        <v>4.673002859953977</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>29.01737789483753</v>
+        <v>21.84631235094828</v>
       </c>
       <c r="G3">
-        <v>37.00580167057596</v>
+        <v>29.49822965944418</v>
       </c>
       <c r="H3">
-        <v>16.34274514529553</v>
+        <v>10.49353906755086</v>
       </c>
       <c r="I3">
-        <v>25.62641996580857</v>
+        <v>17.09623442760271</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.12230679072458</v>
+        <v>11.26566455457762</v>
       </c>
       <c r="L3">
-        <v>10.72461861042657</v>
+        <v>7.808848571007801</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.84055737437035</v>
+        <v>13.03207414840141</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.73930919593043</v>
+        <v>13.18748516980154</v>
       </c>
       <c r="C4">
-        <v>7.306336008312418</v>
+        <v>6.261346787718415</v>
       </c>
       <c r="D4">
-        <v>5.785002058158153</v>
+        <v>4.629078545045038</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>29.01906448875049</v>
+        <v>21.54276464368868</v>
       </c>
       <c r="G4">
-        <v>36.99879052136627</v>
+        <v>29.06151918961201</v>
       </c>
       <c r="H4">
-        <v>16.36885005515901</v>
+        <v>10.49037484671322</v>
       </c>
       <c r="I4">
-        <v>25.67029134008377</v>
+        <v>17.08478339737788</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.01574874331737</v>
+        <v>10.7765576593311</v>
       </c>
       <c r="L4">
-        <v>10.71100439704811</v>
+        <v>7.633177823263638</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.88078248782664</v>
+        <v>13.16676344836238</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.67647966989863</v>
+        <v>12.93405709478899</v>
       </c>
       <c r="C5">
-        <v>7.291941566876563</v>
+        <v>6.215835616056318</v>
       </c>
       <c r="D5">
-        <v>5.778474110809755</v>
+        <v>4.610950655736475</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>29.02159819719889</v>
+        <v>21.42256561726531</v>
       </c>
       <c r="G5">
-        <v>36.99863967698509</v>
+        <v>28.8890476331259</v>
       </c>
       <c r="H5">
-        <v>16.38017210570258</v>
+        <v>10.49079500518201</v>
       </c>
       <c r="I5">
-        <v>25.68939578504694</v>
+        <v>17.08331233521078</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.972560302759465</v>
+        <v>10.57086648222134</v>
       </c>
       <c r="L5">
-        <v>10.70600537531507</v>
+        <v>7.561608155053479</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.89762808397705</v>
+        <v>13.22241799836254</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.66606246722629</v>
+        <v>12.89173337766253</v>
       </c>
       <c r="C6">
-        <v>7.289539157815458</v>
+        <v>6.20824013564941</v>
       </c>
       <c r="D6">
-        <v>5.777384805889787</v>
+        <v>4.607927057506358</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>29.02213043032839</v>
+        <v>21.4028200240384</v>
       </c>
       <c r="G6">
-        <v>36.99877805343086</v>
+        <v>28.860742957855</v>
       </c>
       <c r="H6">
-        <v>16.38209342072504</v>
+        <v>10.49096628479619</v>
       </c>
       <c r="I6">
-        <v>25.69264207650778</v>
+        <v>17.08325755316979</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.965404798425771</v>
+        <v>10.53632665351361</v>
       </c>
       <c r="L6">
-        <v>10.70520855059187</v>
+        <v>7.549728251583053</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.90045271165898</v>
+        <v>13.23170637287453</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.73846086857808</v>
+        <v>13.18374669334836</v>
       </c>
       <c r="C7">
-        <v>7.306142701916013</v>
+        <v>6.26073559914027</v>
       </c>
       <c r="D7">
-        <v>5.784914379121093</v>
+        <v>4.628834976391706</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>29.01909118330583</v>
+        <v>21.54112933646526</v>
       </c>
       <c r="G7">
-        <v>36.99877753044288</v>
+        <v>29.05917083042857</v>
       </c>
       <c r="H7">
-        <v>16.36899997936396</v>
+        <v>10.49037366972579</v>
       </c>
       <c r="I7">
-        <v>25.67054402618308</v>
+        <v>17.08475077845293</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.01516526035106</v>
+        <v>10.77380944860985</v>
       </c>
       <c r="L7">
-        <v>10.71093475113881</v>
+        <v>7.632212398325349</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.88100783543063</v>
+        <v>13.16751088908612</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.05956962300725</v>
+        <v>14.52994986792092</v>
       </c>
       <c r="C8">
-        <v>7.377604974568344</v>
+        <v>6.486623747947201</v>
       </c>
       <c r="D8">
-        <v>5.817354544365632</v>
+        <v>4.719063589600168</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>29.02188814685852</v>
+        <v>22.18197541701947</v>
       </c>
       <c r="G8">
-        <v>37.02253274224502</v>
+        <v>29.98274912914721</v>
       </c>
       <c r="H8">
-        <v>16.31722897862855</v>
+        <v>10.50292703812594</v>
       </c>
       <c r="I8">
-        <v>25.5838036107255</v>
+        <v>17.11971144532108</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.23665139060119</v>
+        <v>11.76579582488969</v>
       </c>
       <c r="L8">
-        <v>10.74101123931089</v>
+        <v>7.996076550422973</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.79918017342904</v>
+        <v>12.89091095772733</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.68920371570151</v>
+        <v>16.88534348554288</v>
       </c>
       <c r="C9">
-        <v>7.510984570172245</v>
+        <v>6.907384027132998</v>
       </c>
       <c r="D9">
-        <v>5.878056588540887</v>
+        <v>4.888017909186666</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>29.08553383864254</v>
+        <v>23.54302658056625</v>
       </c>
       <c r="G9">
-        <v>37.15435991836791</v>
+        <v>31.95939453118871</v>
       </c>
       <c r="H9">
-        <v>16.23734038386614</v>
+        <v>10.58601437122458</v>
       </c>
       <c r="I9">
-        <v>25.45256557100487</v>
+        <v>17.29807336060428</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.67399093764638</v>
+        <v>13.51058740739507</v>
       </c>
       <c r="L9">
-        <v>10.81698448479292</v>
+        <v>8.70293207956172</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.65292963791421</v>
+        <v>12.37100943272599</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.14668318951728</v>
+        <v>18.44644390993866</v>
       </c>
       <c r="C10">
-        <v>7.604628225906453</v>
+        <v>7.201960760388502</v>
       </c>
       <c r="D10">
-        <v>5.920803658189908</v>
+        <v>5.00672244898819</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>29.16756566078501</v>
+        <v>24.60161493170669</v>
       </c>
       <c r="G10">
-        <v>37.30285557633723</v>
+        <v>33.50588893335618</v>
       </c>
       <c r="H10">
-        <v>16.19187104050285</v>
+        <v>10.68630817119515</v>
       </c>
       <c r="I10">
-        <v>25.37995313214515</v>
+        <v>17.50305951227609</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.99379242631152</v>
+        <v>14.67174482608515</v>
       </c>
       <c r="L10">
-        <v>10.88286447254209</v>
+        <v>9.213500811677001</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.55406108211008</v>
+        <v>12.00126679967432</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.35268232055382</v>
+        <v>19.12076413647488</v>
       </c>
       <c r="C11">
-        <v>7.646236808759886</v>
+        <v>7.33266424995518</v>
       </c>
       <c r="D11">
-        <v>5.939832839892839</v>
+        <v>5.059437155101089</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>29.21247609250133</v>
+        <v>25.09491761989769</v>
       </c>
       <c r="G11">
-        <v>37.38150382367404</v>
+        <v>34.22854542932225</v>
       </c>
       <c r="H11">
-        <v>16.17406408142863</v>
+        <v>10.74122209267922</v>
       </c>
       <c r="I11">
-        <v>25.35211190550207</v>
+        <v>17.61382049910364</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.13827272452698</v>
+        <v>15.17422769422557</v>
       </c>
       <c r="L11">
-        <v>10.91494668328061</v>
+        <v>9.443088687957431</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.51092894345495</v>
+        <v>11.83537441653038</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.43030651757416</v>
+        <v>19.37103715637789</v>
       </c>
       <c r="C12">
-        <v>7.661846460236714</v>
+        <v>7.38167564802845</v>
       </c>
       <c r="D12">
-        <v>5.946977411873245</v>
+        <v>5.079205612415292</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>29.23056656527195</v>
+        <v>25.28333224545632</v>
       </c>
       <c r="G12">
-        <v>37.41286744490465</v>
+        <v>34.50485031691561</v>
       </c>
       <c r="H12">
-        <v>16.1677352247596</v>
+        <v>10.76341454302392</v>
       </c>
       <c r="I12">
-        <v>25.34231709571427</v>
+        <v>17.65839623316486</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.19278631251635</v>
+        <v>15.36084875178499</v>
       </c>
       <c r="L12">
-        <v>10.92739230630067</v>
+        <v>9.529592166303127</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.49485974616274</v>
+        <v>11.77285780121217</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.41360702283685</v>
+        <v>19.3173609684308</v>
       </c>
       <c r="C13">
-        <v>7.65849122929396</v>
+        <v>7.37114175377776</v>
       </c>
       <c r="D13">
-        <v>5.945441452690001</v>
+        <v>5.074956858988497</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>29.22662239627761</v>
+        <v>25.24268321453853</v>
       </c>
       <c r="G13">
-        <v>37.40604265809559</v>
+        <v>34.44522667681561</v>
       </c>
       <c r="H13">
-        <v>16.16907982605618</v>
+        <v>10.75857185352381</v>
       </c>
       <c r="I13">
-        <v>25.34439328858275</v>
+        <v>17.64867714701926</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.18105547904669</v>
+        <v>15.32081854322857</v>
       </c>
       <c r="L13">
-        <v>10.9246988362364</v>
+        <v>9.510982225127911</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.49830881103134</v>
+        <v>11.7863088490669</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.35907663071267</v>
+        <v>19.14145556438713</v>
       </c>
       <c r="C14">
-        <v>7.647523986352088</v>
+        <v>7.336706166931931</v>
       </c>
       <c r="D14">
-        <v>5.940421866258727</v>
+        <v>5.061067443324597</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>29.21394273545523</v>
+        <v>25.11038670726714</v>
       </c>
       <c r="G14">
-        <v>37.38405252881587</v>
+        <v>34.25122460327665</v>
       </c>
       <c r="H14">
-        <v>16.17353509772489</v>
+        <v>10.74301951235909</v>
       </c>
       <c r="I14">
-        <v>25.35129107951319</v>
+        <v>17.61743435411046</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.1427618600762</v>
+        <v>15.1896541781286</v>
       </c>
       <c r="L14">
-        <v>10.91596468617785</v>
+        <v>9.450214390016816</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.50960163612702</v>
+        <v>11.83022522580174</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.32562299657716</v>
+        <v>19.03304948637129</v>
       </c>
       <c r="C15">
-        <v>7.640787016389454</v>
+        <v>7.315550259458171</v>
       </c>
       <c r="D15">
-        <v>5.93733919013391</v>
+        <v>5.052534331020224</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>29.20631696516341</v>
+        <v>25.02955905566188</v>
       </c>
       <c r="G15">
-        <v>37.37078839256547</v>
+        <v>34.13273516042837</v>
       </c>
       <c r="H15">
-        <v>16.1763180418384</v>
+        <v>10.73367711459137</v>
       </c>
       <c r="I15">
-        <v>25.35561364122482</v>
+        <v>17.59864349612467</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.11927856181929</v>
+        <v>15.10883714159413</v>
       </c>
       <c r="L15">
-        <v>10.91065320013558</v>
+        <v>9.412934126873363</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.51655316644256</v>
+        <v>11.85716390553479</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.13317127806563</v>
+        <v>18.40166081418821</v>
       </c>
       <c r="C16">
-        <v>7.601888717287651</v>
+        <v>7.193351749356011</v>
       </c>
       <c r="D16">
-        <v>5.919551547760232</v>
+        <v>5.003250811027787</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>29.1647828018966</v>
+        <v>24.56960592121886</v>
       </c>
       <c r="G16">
-        <v>37.29793784312824</v>
+        <v>33.45903775499584</v>
       </c>
       <c r="H16">
-        <v>16.19309270998986</v>
+        <v>10.68291164617415</v>
       </c>
       <c r="I16">
-        <v>25.38187721520204</v>
+        <v>17.49618326888752</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.9843254986822</v>
+        <v>14.63839204411326</v>
       </c>
       <c r="L16">
-        <v>10.88080975055193</v>
+        <v>9.198438226933154</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.55691687293838</v>
+        <v>12.01215225545238</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.0145097191627</v>
+        <v>18.00519928904431</v>
       </c>
       <c r="C17">
-        <v>7.577769196517887</v>
+        <v>7.117534308672608</v>
       </c>
       <c r="D17">
-        <v>5.908531650791328</v>
+        <v>4.972681572377212</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>29.1412425391125</v>
+        <v>24.2903894031495</v>
       </c>
       <c r="G17">
-        <v>37.25607902904803</v>
+        <v>33.05057209674223</v>
       </c>
       <c r="H17">
-        <v>16.20412074589939</v>
+        <v>10.65419211453587</v>
       </c>
       <c r="I17">
-        <v>25.399319730948</v>
+        <v>17.43789485096974</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.90124089455918</v>
+        <v>14.34322650928461</v>
       </c>
       <c r="L17">
-        <v>10.86303807797659</v>
+        <v>9.066126995121595</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.58215011285565</v>
+        <v>12.10780328705166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.9460645690482</v>
+        <v>17.77378771429442</v>
       </c>
       <c r="C18">
-        <v>7.563803312762356</v>
+        <v>7.07361571080072</v>
       </c>
       <c r="D18">
-        <v>5.902154164129223</v>
+        <v>4.954978533052977</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>29.12841813249021</v>
+        <v>24.13090104199977</v>
       </c>
       <c r="G18">
-        <v>37.23304845415499</v>
+        <v>32.81744107931916</v>
       </c>
       <c r="H18">
-        <v>16.21073457740152</v>
+        <v>10.6385441164424</v>
       </c>
       <c r="I18">
-        <v>25.40984067414247</v>
+        <v>17.40601048032695</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.8533618994404</v>
+        <v>14.1710300704691</v>
       </c>
       <c r="L18">
-        <v>10.85301562616146</v>
+        <v>8.989775983004805</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.59683720482418</v>
+        <v>12.16303798651504</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.9228593703936</v>
+        <v>17.6948534243523</v>
       </c>
       <c r="C19">
-        <v>7.559058865457214</v>
+        <v>7.058692631255971</v>
       </c>
       <c r="D19">
-        <v>5.899988179854004</v>
+        <v>4.948964180376972</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>29.12419909231547</v>
+        <v>24.07709413460175</v>
       </c>
       <c r="G19">
-        <v>37.22543066544464</v>
+        <v>32.73882079613589</v>
       </c>
       <c r="H19">
-        <v>16.21302040021769</v>
+        <v>10.63339363017179</v>
       </c>
       <c r="I19">
-        <v>25.41348672613048</v>
+        <v>17.39549338741677</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.83713697163815</v>
+        <v>14.11230961889452</v>
       </c>
       <c r="L19">
-        <v>10.84965664203136</v>
+        <v>8.963883823456753</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.60183985175004</v>
+        <v>12.18177792163283</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.02716213082251</v>
+        <v>18.04775230826976</v>
       </c>
       <c r="C20">
-        <v>7.58034641374669</v>
+        <v>7.125637403810543</v>
       </c>
       <c r="D20">
-        <v>5.909708798316113</v>
+        <v>4.975948248168446</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>29.14367446072509</v>
+        <v>24.31999823580466</v>
       </c>
       <c r="G20">
-        <v>37.26042686222875</v>
+        <v>33.09386768205083</v>
       </c>
       <c r="H20">
-        <v>16.20291876228526</v>
+        <v>10.65715879287163</v>
       </c>
       <c r="I20">
-        <v>25.39741237794005</v>
+        <v>17.44392901570454</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.91009520436587</v>
+        <v>14.37489807761564</v>
       </c>
       <c r="L20">
-        <v>10.86490932132816</v>
+        <v>9.080237943117497</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.57944603252158</v>
+        <v>12.09759863233895</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.37510454197813</v>
+        <v>19.19326042866641</v>
       </c>
       <c r="C21">
-        <v>7.650749343637451</v>
+        <v>7.346833897090294</v>
       </c>
       <c r="D21">
-        <v>5.941897917421235</v>
+        <v>5.065152418778325</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>29.21763771458297</v>
+        <v>25.1492022186411</v>
       </c>
       <c r="G21">
-        <v>37.39046877583941</v>
+        <v>34.30813651079894</v>
       </c>
       <c r="H21">
-        <v>16.17221523009872</v>
+        <v>10.74754918547539</v>
       </c>
       <c r="I21">
-        <v>25.349244716655</v>
+        <v>17.62653875896353</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.15401541756667</v>
+        <v>15.22827925415979</v>
       </c>
       <c r="L21">
-        <v>10.91852212157302</v>
+        <v>9.468075585365723</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.5062775033413</v>
+        <v>11.8173179228389</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.60023761679149</v>
+        <v>19.91235856861619</v>
       </c>
       <c r="C22">
-        <v>7.695905248543456</v>
+        <v>7.488580836562138</v>
       </c>
       <c r="D22">
-        <v>5.962577014626622</v>
+        <v>5.1223212034976</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>29.27228988311241</v>
+        <v>25.70050166330864</v>
       </c>
       <c r="G22">
-        <v>37.48466693627351</v>
+        <v>35.11714695115429</v>
       </c>
       <c r="H22">
-        <v>16.15456345750894</v>
+        <v>10.81480024864095</v>
       </c>
       <c r="I22">
-        <v>25.32212526448319</v>
+        <v>17.7612833200121</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.31225406710722</v>
+        <v>15.76471316072675</v>
       </c>
       <c r="L22">
-        <v>10.95528750328176</v>
+        <v>9.718989066747143</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.45999597198232</v>
+        <v>11.63589180622796</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.48031250348581</v>
+        <v>19.53124112333519</v>
       </c>
       <c r="C23">
-        <v>7.671884426658342</v>
+        <v>7.413187545017993</v>
       </c>
       <c r="D23">
-        <v>5.951573456350989</v>
+        <v>5.091915410002969</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>29.24254638311449</v>
+        <v>25.40542811280199</v>
       </c>
       <c r="G23">
-        <v>37.43355445236151</v>
+        <v>34.68398143820652</v>
       </c>
       <c r="H23">
-        <v>16.16376344265793</v>
+        <v>10.77813860678654</v>
       </c>
       <c r="I23">
-        <v>25.33619990152444</v>
+        <v>17.68792130830792</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.22792414380793</v>
+        <v>15.48034192745878</v>
       </c>
       <c r="L23">
-        <v>10.93550961525865</v>
+        <v>9.585320651255753</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.4845569019814</v>
+        <v>11.73257152845456</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.02144267033308</v>
+        <v>18.02852493510318</v>
       </c>
       <c r="C24">
-        <v>7.579181562683801</v>
+        <v>7.121975022125882</v>
       </c>
       <c r="D24">
-        <v>5.909176740623708</v>
+        <v>4.97447178324</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>29.1425727792095</v>
+        <v>24.30660884670267</v>
       </c>
       <c r="G24">
-        <v>37.25845798297581</v>
+        <v>33.07428844059231</v>
       </c>
       <c r="H24">
-        <v>16.20346132663446</v>
+        <v>10.65581487347367</v>
       </c>
       <c r="I24">
-        <v>25.39827315663663</v>
+        <v>17.44119591262071</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.90609251729648</v>
+        <v>14.36058715737579</v>
       </c>
       <c r="L24">
-        <v>10.864062725153</v>
+        <v>9.073859262554613</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.58066798592012</v>
+        <v>12.10221139570117</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.51941344539757</v>
+        <v>16.27819806948983</v>
       </c>
       <c r="C25">
-        <v>7.475649330567028</v>
+        <v>6.796052124973895</v>
       </c>
       <c r="D25">
-        <v>5.86195468487805</v>
+        <v>4.843225523339064</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.06210330794293</v>
+        <v>23.16416977328683</v>
       </c>
       <c r="G25">
-        <v>37.10959506938585</v>
+        <v>31.4076212871564</v>
       </c>
       <c r="H25">
-        <v>16.2566323109937</v>
+        <v>10.55690374671317</v>
       </c>
       <c r="I25">
-        <v>25.48389591799637</v>
+        <v>17.23733441268174</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.5557080769031</v>
+        <v>13.05991304545049</v>
       </c>
       <c r="L25">
-        <v>10.79464118277395</v>
+        <v>8.512946452447446</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.69098128778839</v>
+        <v>12.50939730375716</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.8753051838754</v>
+        <v>11.05436273787052</v>
       </c>
       <c r="C2">
-        <v>6.546370605207086</v>
+        <v>7.815363791908757</v>
       </c>
       <c r="D2">
-        <v>4.742992555369412</v>
+        <v>4.805342482914874</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.3628571128638</v>
+        <v>21.52912414919982</v>
       </c>
       <c r="G2">
-        <v>30.24443212125973</v>
+        <v>28.76026337496693</v>
       </c>
       <c r="H2">
-        <v>10.51015057515468</v>
+        <v>1.889984177375264</v>
       </c>
       <c r="I2">
-        <v>17.13634971549028</v>
+        <v>2.498084825280845</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.21243526813175</v>
       </c>
       <c r="K2">
-        <v>12.0209683746247</v>
+        <v>15.95678832236128</v>
       </c>
       <c r="L2">
-        <v>8.094410149542778</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.51243615054169</v>
       </c>
       <c r="N2">
-        <v>12.81754293426967</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>28.2971514548261</v>
+      </c>
+      <c r="P2">
+        <v>13.08138153287609</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.85200475717865</v>
+        <v>10.35040104301198</v>
       </c>
       <c r="C3">
-        <v>6.371436666553709</v>
+        <v>7.365374483349852</v>
       </c>
       <c r="D3">
-        <v>4.673002859953977</v>
+        <v>4.686401530739174</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.84631235094828</v>
+        <v>20.9612738801222</v>
       </c>
       <c r="G3">
-        <v>29.49822965944418</v>
+        <v>27.9348627698275</v>
       </c>
       <c r="H3">
-        <v>10.49353906755086</v>
+        <v>1.647325907109918</v>
       </c>
       <c r="I3">
-        <v>17.09623442760271</v>
+        <v>2.614120404622161</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.15491165722851</v>
       </c>
       <c r="K3">
-        <v>11.26566455457762</v>
+        <v>15.85410950333549</v>
       </c>
       <c r="L3">
-        <v>7.808848571007801</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.921070354927322</v>
       </c>
       <c r="N3">
-        <v>13.03207414840141</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>26.49089212627884</v>
+      </c>
+      <c r="P3">
+        <v>13.20703133108068</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.18748516980154</v>
+        <v>9.890320845947711</v>
       </c>
       <c r="C4">
-        <v>6.261346787718415</v>
+        <v>7.078214016037421</v>
       </c>
       <c r="D4">
-        <v>4.629078545045038</v>
+        <v>4.611171644878664</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.54276464368868</v>
+        <v>20.61327255783396</v>
       </c>
       <c r="G4">
-        <v>29.06151918961201</v>
+        <v>27.42649757904353</v>
       </c>
       <c r="H4">
-        <v>10.49037484671322</v>
+        <v>1.628919219187874</v>
       </c>
       <c r="I4">
-        <v>17.08478339737788</v>
+        <v>2.722197077818304</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.12236774919953</v>
       </c>
       <c r="K4">
-        <v>10.7765576593311</v>
+        <v>15.79383575082563</v>
       </c>
       <c r="L4">
-        <v>7.633177823263638</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.538500439073347</v>
       </c>
       <c r="N4">
-        <v>13.16676344836238</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.32093654870496</v>
+      </c>
+      <c r="P4">
+        <v>13.28500762494862</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.93405709478899</v>
+        <v>9.690242281886302</v>
       </c>
       <c r="C5">
-        <v>6.215835616056318</v>
+        <v>6.965053072107071</v>
       </c>
       <c r="D5">
-        <v>4.610950655736475</v>
+        <v>4.5812056964195</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.42256561726531</v>
+        <v>20.46238482768065</v>
       </c>
       <c r="G5">
-        <v>28.8890476331259</v>
+        <v>27.20222082562728</v>
       </c>
       <c r="H5">
-        <v>10.49079500518201</v>
+        <v>1.694268827775891</v>
       </c>
       <c r="I5">
-        <v>17.08331233521078</v>
+        <v>2.770513222067049</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.10686036670504</v>
       </c>
       <c r="K5">
-        <v>10.57086648222134</v>
+        <v>15.76285309392635</v>
       </c>
       <c r="L5">
-        <v>7.561608155053479</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.37686579350836</v>
       </c>
       <c r="N5">
-        <v>13.22241799836254</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.8287251871875</v>
+      </c>
+      <c r="P5">
+        <v>13.31530474595754</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.89173337766253</v>
+        <v>9.649776282227606</v>
       </c>
       <c r="C6">
-        <v>6.20824013564941</v>
+        <v>6.95415180569111</v>
       </c>
       <c r="D6">
-        <v>4.607927057506358</v>
+        <v>4.577704346140298</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.4028200240384</v>
+        <v>20.42585280090392</v>
       </c>
       <c r="G6">
-        <v>28.860742957855</v>
+        <v>27.14423719696953</v>
       </c>
       <c r="H6">
-        <v>10.49096628479619</v>
+        <v>1.705294974154466</v>
       </c>
       <c r="I6">
-        <v>17.08325755316979</v>
+        <v>2.782627370028491</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.10074320059271</v>
       </c>
       <c r="K6">
-        <v>10.53632665351361</v>
+        <v>15.74906524050354</v>
       </c>
       <c r="L6">
-        <v>7.549728251583053</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.348656514431729</v>
       </c>
       <c r="N6">
-        <v>13.23170637287453</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.74591043462316</v>
+      </c>
+      <c r="P6">
+        <v>13.31828189603675</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.18374669334836</v>
+        <v>9.869447448511709</v>
       </c>
       <c r="C7">
-        <v>6.26073559914027</v>
+        <v>7.098241897046374</v>
       </c>
       <c r="D7">
-        <v>4.628834976391706</v>
+        <v>4.614874162188838</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.54112933646526</v>
+        <v>20.58009815911048</v>
       </c>
       <c r="G7">
-        <v>29.05917083042857</v>
+        <v>27.36736282233696</v>
       </c>
       <c r="H7">
-        <v>10.49037366972579</v>
+        <v>1.630073114961565</v>
       </c>
       <c r="I7">
-        <v>17.08475077845293</v>
+        <v>2.733523535082324</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.11239787354162</v>
       </c>
       <c r="K7">
-        <v>10.77380944860985</v>
+        <v>15.76975604607737</v>
       </c>
       <c r="L7">
-        <v>7.632212398325349</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.533449929700392</v>
       </c>
       <c r="N7">
-        <v>13.16751088908612</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.31393518413696</v>
+      </c>
+      <c r="P7">
+        <v>13.27980749916456</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.52994986792092</v>
+        <v>10.79508853105095</v>
       </c>
       <c r="C8">
-        <v>6.486623747947201</v>
+        <v>7.689082007419976</v>
       </c>
       <c r="D8">
-        <v>4.719063589600168</v>
+        <v>4.770177405224805</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.18197541701947</v>
+        <v>21.29341506900478</v>
       </c>
       <c r="G8">
-        <v>29.98274912914721</v>
+        <v>28.40446191752829</v>
       </c>
       <c r="H8">
-        <v>10.50292703812594</v>
+        <v>1.806885938131305</v>
       </c>
       <c r="I8">
-        <v>17.11971144532108</v>
+        <v>2.516604796803498</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.17924745007973</v>
       </c>
       <c r="K8">
-        <v>11.76579582488969</v>
+        <v>15.88982231415279</v>
       </c>
       <c r="L8">
-        <v>7.996076550422973</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.30900859520719</v>
       </c>
       <c r="N8">
-        <v>12.89091095772733</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27.68645979358546</v>
+      </c>
+      <c r="P8">
+        <v>13.11727923507259</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.88534348554288</v>
+        <v>12.41930538760696</v>
       </c>
       <c r="C9">
-        <v>6.907384027132998</v>
+        <v>8.726370764626946</v>
       </c>
       <c r="D9">
-        <v>4.888017909186666</v>
+        <v>5.049409617647787</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.54302658056625</v>
+        <v>22.74406161950078</v>
       </c>
       <c r="G9">
-        <v>31.95939453118871</v>
+        <v>30.51190334015882</v>
       </c>
       <c r="H9">
-        <v>10.58601437122458</v>
+        <v>2.389109226337711</v>
       </c>
       <c r="I9">
-        <v>17.29807336060428</v>
+        <v>2.835128669201332</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.35018890800161</v>
       </c>
       <c r="K9">
-        <v>13.51058740739507</v>
+        <v>16.18968133744685</v>
       </c>
       <c r="L9">
-        <v>8.70293207956172</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.67887208197166</v>
       </c>
       <c r="N9">
-        <v>12.37100943272599</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>31.85762297183595</v>
+      </c>
+      <c r="P9">
+        <v>12.8145309341113</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.44644390993866</v>
+        <v>13.52991846482028</v>
       </c>
       <c r="C10">
-        <v>7.201960760388502</v>
+        <v>9.468666033775545</v>
       </c>
       <c r="D10">
-        <v>5.00672244898819</v>
+        <v>5.262317325209959</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.60161493170669</v>
+        <v>23.67322567913651</v>
       </c>
       <c r="G10">
-        <v>33.50588893335618</v>
+        <v>31.8075736181885</v>
       </c>
       <c r="H10">
-        <v>10.68630817119515</v>
+        <v>2.739649829074616</v>
       </c>
       <c r="I10">
-        <v>17.50305951227609</v>
+        <v>3.104746505804864</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.44758362331885</v>
       </c>
       <c r="K10">
-        <v>14.67174482608515</v>
+        <v>16.33328823919727</v>
       </c>
       <c r="L10">
-        <v>9.213500811677001</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.6323117887822</v>
       </c>
       <c r="N10">
-        <v>12.00126679967432</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.74629102022756</v>
+      </c>
+      <c r="P10">
+        <v>12.56516928477079</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.12076413647488</v>
+        <v>14.47047534196429</v>
       </c>
       <c r="C11">
-        <v>7.33266424995518</v>
+        <v>10.0267387087057</v>
       </c>
       <c r="D11">
-        <v>5.059437155101089</v>
+        <v>5.5179631182276</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>25.09491761989769</v>
+        <v>23.07034765464811</v>
       </c>
       <c r="G11">
-        <v>34.22854542932225</v>
+        <v>30.5681807165528</v>
       </c>
       <c r="H11">
-        <v>10.74122209267922</v>
+        <v>3.175671627461107</v>
       </c>
       <c r="I11">
-        <v>17.61382049910364</v>
+        <v>3.184023251380296</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.14833951673375</v>
       </c>
       <c r="K11">
-        <v>15.17422769422557</v>
+        <v>15.67459774711956</v>
       </c>
       <c r="L11">
-        <v>9.443088687957431</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.41571854535091</v>
       </c>
       <c r="N11">
-        <v>11.83537441653038</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>27.05759767028019</v>
+      </c>
+      <c r="P11">
+        <v>12.23130851106704</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.37103715637789</v>
+        <v>15.059365948645</v>
       </c>
       <c r="C12">
-        <v>7.38167564802845</v>
+        <v>10.31997505320732</v>
       </c>
       <c r="D12">
-        <v>5.079205612415292</v>
+        <v>5.687586275673364</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25.28333224545632</v>
+        <v>22.39721472006019</v>
       </c>
       <c r="G12">
-        <v>34.50485031691561</v>
+        <v>29.30937558866328</v>
       </c>
       <c r="H12">
-        <v>10.76341454302392</v>
+        <v>4.234528920374415</v>
       </c>
       <c r="I12">
-        <v>17.65839623316486</v>
+        <v>3.199522040458302</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.883861030254245</v>
       </c>
       <c r="K12">
-        <v>15.36084875178499</v>
+        <v>15.1191072655707</v>
       </c>
       <c r="L12">
-        <v>9.529592166303127</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.8852354944444</v>
       </c>
       <c r="N12">
-        <v>11.77285780121217</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>21.07172541127366</v>
+      </c>
+      <c r="P12">
+        <v>12.04211560704293</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.3173609684308</v>
+        <v>15.41124492131715</v>
       </c>
       <c r="C13">
-        <v>7.37114175377776</v>
+        <v>10.46105796043697</v>
       </c>
       <c r="D13">
-        <v>5.074956858988497</v>
+        <v>5.808088517793066</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>25.24268321453853</v>
+        <v>21.57012555893366</v>
       </c>
       <c r="G13">
-        <v>34.44522667681561</v>
+        <v>27.85286654809755</v>
       </c>
       <c r="H13">
-        <v>10.75857185352381</v>
+        <v>5.481040889183228</v>
       </c>
       <c r="I13">
-        <v>17.64867714701926</v>
+        <v>3.170556775216925</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.613503524591057</v>
       </c>
       <c r="K13">
-        <v>15.32081854322857</v>
+        <v>14.57143006264685</v>
       </c>
       <c r="L13">
-        <v>9.510982225127911</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.15154766184659</v>
       </c>
       <c r="N13">
-        <v>11.7863088490669</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.10468789252595</v>
+      </c>
+      <c r="P13">
+        <v>11.94294691554593</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.14145556438713</v>
+        <v>15.5510899992126</v>
       </c>
       <c r="C14">
-        <v>7.336706166931931</v>
+        <v>10.4982978168348</v>
       </c>
       <c r="D14">
-        <v>5.061067443324597</v>
+        <v>5.872116206666268</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>25.11038670726714</v>
+        <v>20.90674190234675</v>
       </c>
       <c r="G14">
-        <v>34.25122460327665</v>
+        <v>26.71754578694828</v>
       </c>
       <c r="H14">
-        <v>10.74301951235909</v>
+        <v>6.464222962394353</v>
       </c>
       <c r="I14">
-        <v>17.61743435411046</v>
+        <v>3.131941938275892</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.418911903369855</v>
       </c>
       <c r="K14">
-        <v>15.1896541781286</v>
+        <v>14.18687201894905</v>
       </c>
       <c r="L14">
-        <v>9.450214390016816</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.24858960946569</v>
       </c>
       <c r="N14">
-        <v>11.83022522580174</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.936401907634</v>
+      </c>
+      <c r="P14">
+        <v>11.91689867339679</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.03304948637129</v>
+        <v>15.52992243469398</v>
       </c>
       <c r="C15">
-        <v>7.315550259458171</v>
+        <v>10.48228469778221</v>
       </c>
       <c r="D15">
-        <v>5.052534331020224</v>
+        <v>5.87862410152916</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>25.02955905566188</v>
+        <v>20.70177210973918</v>
       </c>
       <c r="G15">
-        <v>34.13273516042837</v>
+        <v>26.37958738318794</v>
       </c>
       <c r="H15">
-        <v>10.73367711459137</v>
+        <v>6.705824129727657</v>
       </c>
       <c r="I15">
-        <v>17.59864349612467</v>
+        <v>3.113237878745968</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.367795910088381</v>
       </c>
       <c r="K15">
-        <v>15.10883714159413</v>
+        <v>14.08821106507186</v>
       </c>
       <c r="L15">
-        <v>9.412934126873363</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.2285398535201</v>
       </c>
       <c r="N15">
-        <v>11.85716390553479</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.921599566335646</v>
+      </c>
+      <c r="P15">
+        <v>11.92468413370261</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.40166081418821</v>
+        <v>15.02789132223838</v>
       </c>
       <c r="C16">
-        <v>7.193351749356011</v>
+        <v>10.17139504408787</v>
       </c>
       <c r="D16">
-        <v>5.003250811027787</v>
+        <v>5.769022100550346</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.56960592121886</v>
+        <v>20.41518818626914</v>
       </c>
       <c r="G16">
-        <v>33.45903775499584</v>
+        <v>26.01788104193493</v>
       </c>
       <c r="H16">
-        <v>10.68291164617415</v>
+        <v>6.491086346721723</v>
       </c>
       <c r="I16">
-        <v>17.49618326888752</v>
+        <v>3.007615474993679</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.370929676541291</v>
       </c>
       <c r="K16">
-        <v>14.63839204411326</v>
+        <v>14.11979982492298</v>
       </c>
       <c r="L16">
-        <v>9.198438226933154</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.80273028464223</v>
       </c>
       <c r="N16">
-        <v>12.01215225545238</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.865724916632995</v>
+      </c>
+      <c r="P16">
+        <v>12.04240786278433</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.00519928904431</v>
+        <v>14.554075745142</v>
       </c>
       <c r="C17">
-        <v>7.117534308672608</v>
+        <v>9.907724287110964</v>
       </c>
       <c r="D17">
-        <v>4.972681572377212</v>
+        <v>5.649270332661191</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.2903894031495</v>
+        <v>20.55945538183436</v>
       </c>
       <c r="G17">
-        <v>33.05057209674223</v>
+        <v>26.36395642290596</v>
       </c>
       <c r="H17">
-        <v>10.65419211453587</v>
+        <v>5.73336578327023</v>
       </c>
       <c r="I17">
-        <v>17.43789485096974</v>
+        <v>2.946430569238681</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.478055185452657</v>
       </c>
       <c r="K17">
-        <v>14.34322650928461</v>
+        <v>14.34865140742224</v>
       </c>
       <c r="L17">
-        <v>9.066126995121595</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.41460818086758</v>
       </c>
       <c r="N17">
-        <v>12.10780328705166</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.10259714281377</v>
+      </c>
+      <c r="P17">
+        <v>12.14567452092634</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.77378771429442</v>
+        <v>14.06831265441961</v>
       </c>
       <c r="C18">
-        <v>7.07361571080072</v>
+        <v>9.641641616454212</v>
       </c>
       <c r="D18">
-        <v>4.954978533052977</v>
+        <v>5.505348113932547</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.13090104199977</v>
+        <v>21.10983835971729</v>
       </c>
       <c r="G18">
-        <v>32.81744107931916</v>
+        <v>27.39430034156748</v>
       </c>
       <c r="H18">
-        <v>10.6385441164424</v>
+        <v>4.422902809528732</v>
       </c>
       <c r="I18">
-        <v>17.40601048032695</v>
+        <v>2.917064064251097</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.691914387599292</v>
       </c>
       <c r="K18">
-        <v>14.1710300704691</v>
+        <v>14.79057599849534</v>
       </c>
       <c r="L18">
-        <v>8.989775983004805</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.02077374661699</v>
       </c>
       <c r="N18">
-        <v>12.16303798651504</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.76701236047317</v>
+      </c>
+      <c r="P18">
+        <v>12.26630552149867</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.6948534243523</v>
+        <v>13.58609165591002</v>
       </c>
       <c r="C19">
-        <v>7.058692631255971</v>
+        <v>9.431188494179544</v>
       </c>
       <c r="D19">
-        <v>4.948964180376972</v>
+        <v>5.364055997539332</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.07709413460175</v>
+        <v>21.88635403207058</v>
       </c>
       <c r="G19">
-        <v>32.73882079613589</v>
+        <v>28.79523568533528</v>
       </c>
       <c r="H19">
-        <v>10.63339363017179</v>
+        <v>3.156270814696367</v>
       </c>
       <c r="I19">
-        <v>17.39549338741677</v>
+        <v>2.929193989971859</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.958083694408545</v>
       </c>
       <c r="K19">
-        <v>14.11230961889452</v>
+        <v>15.33641102965011</v>
       </c>
       <c r="L19">
-        <v>8.963883823456753</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.65033379358102</v>
       </c>
       <c r="N19">
-        <v>12.18177792163283</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>23.0749138050334</v>
+      </c>
+      <c r="P19">
+        <v>12.41074534501343</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.04775230826976</v>
+        <v>13.20599957579894</v>
       </c>
       <c r="C20">
-        <v>7.125637403810543</v>
+        <v>9.332106956068984</v>
       </c>
       <c r="D20">
-        <v>4.975948248168446</v>
+        <v>5.220322220524385</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.31999823580466</v>
+        <v>23.33912361196945</v>
       </c>
       <c r="G20">
-        <v>33.09386768205083</v>
+        <v>31.3067744476955</v>
       </c>
       <c r="H20">
-        <v>10.65715879287163</v>
+        <v>2.64435284003552</v>
       </c>
       <c r="I20">
-        <v>17.44392901570454</v>
+        <v>3.043246592631306</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.39025603631418</v>
       </c>
       <c r="K20">
-        <v>14.37489807761564</v>
+        <v>16.22060421258137</v>
       </c>
       <c r="L20">
-        <v>9.080237943117497</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.38345237098826</v>
       </c>
       <c r="N20">
-        <v>12.09759863233895</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33.22059530768225</v>
+      </c>
+      <c r="P20">
+        <v>12.61304907037162</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.19326042866641</v>
+        <v>13.93933277515747</v>
       </c>
       <c r="C21">
-        <v>7.346833897090294</v>
+        <v>9.833535680204886</v>
       </c>
       <c r="D21">
-        <v>5.065152418778325</v>
+        <v>5.34974688038541</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>25.1492022186411</v>
+        <v>24.24487487352365</v>
       </c>
       <c r="G21">
-        <v>34.30813651079894</v>
+        <v>32.64406174274346</v>
       </c>
       <c r="H21">
-        <v>10.74754918547539</v>
+        <v>2.998975557992276</v>
       </c>
       <c r="I21">
-        <v>17.62653875896353</v>
+        <v>3.253530000097682</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.5356051287619</v>
       </c>
       <c r="K21">
-        <v>15.22827925415979</v>
+        <v>16.47585876307481</v>
       </c>
       <c r="L21">
-        <v>9.468075585365723</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.01807234956518</v>
       </c>
       <c r="N21">
-        <v>11.8173179228389</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35.95902888054192</v>
+      </c>
+      <c r="P21">
+        <v>12.46896445635198</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.91235856861619</v>
+        <v>14.44126123245916</v>
       </c>
       <c r="C22">
-        <v>7.488580836562138</v>
+        <v>10.14426365956424</v>
       </c>
       <c r="D22">
-        <v>5.1223212034976</v>
+        <v>5.436102385485761</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>25.70050166330864</v>
+        <v>24.80818599830074</v>
       </c>
       <c r="G22">
-        <v>35.11714695115429</v>
+        <v>33.46584992779415</v>
       </c>
       <c r="H22">
-        <v>10.81480024864095</v>
+        <v>3.197760666226708</v>
       </c>
       <c r="I22">
-        <v>17.7612833200121</v>
+        <v>3.382885731685124</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.62579204206216</v>
       </c>
       <c r="K22">
-        <v>15.76471316072675</v>
+        <v>16.63334954465092</v>
       </c>
       <c r="L22">
-        <v>9.718989066747143</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.44094857141409</v>
       </c>
       <c r="N22">
-        <v>11.63589180622796</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37.23978515504551</v>
+      </c>
+      <c r="P22">
+        <v>12.36801167947584</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.53124112333519</v>
+        <v>14.19127009468122</v>
       </c>
       <c r="C23">
-        <v>7.413187545017993</v>
+        <v>9.960223180684512</v>
       </c>
       <c r="D23">
-        <v>5.091915410002969</v>
+        <v>5.385682689194389</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>25.40542811280199</v>
+        <v>24.53900281350686</v>
       </c>
       <c r="G23">
-        <v>34.68398143820652</v>
+        <v>33.08331646777042</v>
       </c>
       <c r="H23">
-        <v>10.77813860678654</v>
+        <v>3.092189098719357</v>
       </c>
       <c r="I23">
-        <v>17.68792130830792</v>
+        <v>3.310802067261249</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.58821551007975</v>
       </c>
       <c r="K23">
-        <v>15.48034192745878</v>
+        <v>16.57528158358434</v>
       </c>
       <c r="L23">
-        <v>9.585320651255753</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.21945894302847</v>
       </c>
       <c r="N23">
-        <v>11.73257152845456</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36.56130644235201</v>
+      </c>
+      <c r="P23">
+        <v>12.42800100048279</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.02852493510318</v>
+        <v>13.17322335168134</v>
       </c>
       <c r="C24">
-        <v>7.121975022125882</v>
+        <v>9.27333983220154</v>
       </c>
       <c r="D24">
-        <v>4.97447178324</v>
+        <v>5.197059712967708</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.30660884670267</v>
+        <v>23.46480977608344</v>
       </c>
       <c r="G24">
-        <v>33.07428844059231</v>
+        <v>31.53590535890141</v>
       </c>
       <c r="H24">
-        <v>10.65581487347367</v>
+        <v>2.686169694240715</v>
       </c>
       <c r="I24">
-        <v>17.44119591262071</v>
+        <v>3.038588828186296</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.43512559317255</v>
       </c>
       <c r="K24">
-        <v>14.36058715737579</v>
+        <v>16.32099309798374</v>
       </c>
       <c r="L24">
-        <v>9.073859262554613</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.34169153022743</v>
       </c>
       <c r="N24">
-        <v>12.10221139570117</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>33.88770169967091</v>
+      </c>
+      <c r="P24">
+        <v>12.64666742974456</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.27819806948983</v>
+        <v>11.97571277878396</v>
       </c>
       <c r="C25">
-        <v>6.796052124973895</v>
+        <v>8.488244142439514</v>
       </c>
       <c r="D25">
-        <v>4.843225523339064</v>
+        <v>4.983111376623532</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.16416977328683</v>
+        <v>22.30083773919766</v>
       </c>
       <c r="G25">
-        <v>31.4076212871564</v>
+        <v>29.85258366927154</v>
       </c>
       <c r="H25">
-        <v>10.55690374671317</v>
+        <v>2.234651120726734</v>
       </c>
       <c r="I25">
-        <v>17.23733441268174</v>
+        <v>2.736610213941308</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.28429161335477</v>
       </c>
       <c r="K25">
-        <v>13.05991304545049</v>
+        <v>16.06446013754736</v>
       </c>
       <c r="L25">
-        <v>8.512946452447446</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.3205786781023</v>
       </c>
       <c r="N25">
-        <v>12.50939730375716</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>30.7798923358426</v>
+      </c>
+      <c r="P25">
+        <v>12.88615041890996</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.05436273787052</v>
+        <v>10.71760128730935</v>
       </c>
       <c r="C2">
-        <v>7.815363791908757</v>
+        <v>8.133174906043216</v>
       </c>
       <c r="D2">
-        <v>4.805342482914874</v>
+        <v>4.880540494972711</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.52912414919982</v>
+        <v>20.66919765671713</v>
       </c>
       <c r="G2">
-        <v>28.76026337496693</v>
+        <v>26.71541450703816</v>
       </c>
       <c r="H2">
-        <v>1.889984177375264</v>
+        <v>1.898551266951552</v>
       </c>
       <c r="I2">
-        <v>2.498084825280845</v>
+        <v>2.567442361044184</v>
       </c>
       <c r="J2">
-        <v>10.21243526813175</v>
+        <v>10.2986822922249</v>
       </c>
       <c r="K2">
-        <v>15.95678832236128</v>
+        <v>15.16770040733812</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.97684707266868</v>
       </c>
       <c r="M2">
-        <v>10.51243615054169</v>
+        <v>9.544875081488707</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.2971514548261</v>
+        <v>10.46439162381024</v>
       </c>
       <c r="P2">
-        <v>13.08138153287609</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>28.31028440864874</v>
+      </c>
+      <c r="R2">
+        <v>12.86711540408553</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.35040104301198</v>
+        <v>10.08447911397251</v>
       </c>
       <c r="C3">
-        <v>7.365374483349852</v>
+        <v>7.59780069635717</v>
       </c>
       <c r="D3">
-        <v>4.686401530739174</v>
+        <v>4.733648124899592</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.9612738801222</v>
+        <v>20.19106505995912</v>
       </c>
       <c r="G3">
-        <v>27.9348627698275</v>
+        <v>26.07265268540465</v>
       </c>
       <c r="H3">
-        <v>1.647325907109918</v>
+        <v>1.659427960199362</v>
       </c>
       <c r="I3">
-        <v>2.614120404622161</v>
+        <v>2.525334200945147</v>
       </c>
       <c r="J3">
-        <v>10.15491165722851</v>
+        <v>10.23370496269082</v>
       </c>
       <c r="K3">
-        <v>15.85410950333549</v>
+        <v>15.12929695805494</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.06596976208267</v>
       </c>
       <c r="M3">
-        <v>9.921070354927322</v>
+        <v>9.396822737879335</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.49089212627884</v>
+        <v>9.891608466889521</v>
       </c>
       <c r="P3">
-        <v>13.20703133108068</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>26.5097177067943</v>
+      </c>
+      <c r="R3">
+        <v>12.99942243924327</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.890320845947711</v>
+        <v>9.670723852514746</v>
       </c>
       <c r="C4">
-        <v>7.078214016037421</v>
+        <v>7.25489769294697</v>
       </c>
       <c r="D4">
-        <v>4.611171644878664</v>
+        <v>4.640821092012652</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.61327255783396</v>
+        <v>19.89779718785335</v>
       </c>
       <c r="G4">
-        <v>27.42649757904353</v>
+        <v>25.6804410745622</v>
       </c>
       <c r="H4">
-        <v>1.628919219187874</v>
+        <v>1.614256027565831</v>
       </c>
       <c r="I4">
-        <v>2.722197077818304</v>
+        <v>2.619499224082506</v>
       </c>
       <c r="J4">
-        <v>10.12236774919953</v>
+        <v>10.1941838733619</v>
       </c>
       <c r="K4">
-        <v>15.79383575082563</v>
+        <v>15.10722821510668</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.11964066109812</v>
       </c>
       <c r="M4">
-        <v>9.538500439073347</v>
+        <v>9.324854006142839</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.32093654870496</v>
+        <v>9.521097815447526</v>
       </c>
       <c r="P4">
-        <v>13.28500762494862</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.34346225003151</v>
+      </c>
+      <c r="R4">
+        <v>13.08134206632842</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.690242281886302</v>
+        <v>9.490488214439701</v>
       </c>
       <c r="C5">
-        <v>6.965053072107071</v>
+        <v>7.118607237309621</v>
       </c>
       <c r="D5">
-        <v>4.5812056964195</v>
+        <v>4.603656786364803</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.46238482768065</v>
+        <v>19.76936731565213</v>
       </c>
       <c r="G5">
-        <v>27.20222082562728</v>
+        <v>25.5048389057887</v>
       </c>
       <c r="H5">
-        <v>1.694268827775891</v>
+        <v>1.678667992040603</v>
       </c>
       <c r="I5">
-        <v>2.770513222067049</v>
+        <v>2.662622327781974</v>
       </c>
       <c r="J5">
-        <v>10.10686036670504</v>
+        <v>10.17534406342263</v>
       </c>
       <c r="K5">
-        <v>15.76285309392635</v>
+        <v>15.09192522597301</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.13543413514955</v>
       </c>
       <c r="M5">
-        <v>9.37686579350836</v>
+        <v>9.296139442552077</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.8287251871875</v>
+        <v>9.364585362883378</v>
       </c>
       <c r="P5">
-        <v>13.31530474595754</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.85282627902167</v>
+      </c>
+      <c r="R5">
+        <v>13.11342323333342</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.649776282227606</v>
+        <v>9.453651807536625</v>
       </c>
       <c r="C6">
-        <v>6.95415180569111</v>
+        <v>7.104320306536017</v>
       </c>
       <c r="D6">
-        <v>4.577704346140298</v>
+        <v>4.599040822263952</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.42585280090392</v>
+        <v>19.73691993981685</v>
       </c>
       <c r="G6">
-        <v>27.14423719696953</v>
+        <v>25.45555082934641</v>
       </c>
       <c r="H6">
-        <v>1.705294974154466</v>
+        <v>1.689531192254587</v>
       </c>
       <c r="I6">
-        <v>2.782627370028491</v>
+        <v>2.674563354670926</v>
       </c>
       <c r="J6">
-        <v>10.10074320059271</v>
+        <v>10.16876177229718</v>
       </c>
       <c r="K6">
-        <v>15.74906524050354</v>
+        <v>15.08125665873344</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.13094607380825</v>
       </c>
       <c r="M6">
-        <v>9.348656514431729</v>
+        <v>9.28644735273379</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.74591043462316</v>
+        <v>9.337283041025971</v>
       </c>
       <c r="P6">
-        <v>13.31828189603675</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.77028647426006</v>
+      </c>
+      <c r="R6">
+        <v>13.11695243464401</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.869447448511709</v>
+        <v>9.646800011442147</v>
       </c>
       <c r="C7">
-        <v>7.098241897046374</v>
+        <v>7.266184564706537</v>
       </c>
       <c r="D7">
-        <v>4.614874162188838</v>
+        <v>4.647580971405498</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.58009815911048</v>
+        <v>19.84649678307058</v>
       </c>
       <c r="G7">
-        <v>27.36736282233696</v>
+        <v>25.70059767473028</v>
       </c>
       <c r="H7">
-        <v>1.630073114961565</v>
+        <v>1.615522641261546</v>
       </c>
       <c r="I7">
-        <v>2.733523535082324</v>
+        <v>2.633228882416054</v>
       </c>
       <c r="J7">
-        <v>10.11239787354162</v>
+        <v>10.14083740228275</v>
       </c>
       <c r="K7">
-        <v>15.76975604607737</v>
+        <v>15.07547483108543</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.09287940999486</v>
       </c>
       <c r="M7">
-        <v>9.533449929700392</v>
+        <v>9.303551259701853</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.31393518413696</v>
+        <v>9.510561849258977</v>
       </c>
       <c r="P7">
-        <v>13.27980749916456</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.3362871833432</v>
+      </c>
+      <c r="R7">
+        <v>13.07451574609239</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.79508853105095</v>
+        <v>10.47050348108274</v>
       </c>
       <c r="C8">
-        <v>7.689082007419976</v>
+        <v>7.949581570448201</v>
       </c>
       <c r="D8">
-        <v>4.770177405224805</v>
+        <v>4.845717581280863</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.29341506900478</v>
+        <v>20.40324299892761</v>
       </c>
       <c r="G8">
-        <v>28.40446191752829</v>
+        <v>26.67322317804535</v>
       </c>
       <c r="H8">
-        <v>1.806885938131305</v>
+        <v>1.816251236115646</v>
       </c>
       <c r="I8">
-        <v>2.516604796803498</v>
+        <v>2.521264173573789</v>
       </c>
       <c r="J8">
-        <v>10.17924745007973</v>
+        <v>10.12159565004864</v>
       </c>
       <c r="K8">
-        <v>15.88982231415279</v>
+        <v>15.09459964666504</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.9599318436796</v>
       </c>
       <c r="M8">
-        <v>10.30900859520719</v>
+        <v>9.446578828458584</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.68645979358546</v>
+        <v>10.24974589450477</v>
       </c>
       <c r="P8">
-        <v>13.11727923507259</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>27.70087858104539</v>
+      </c>
+      <c r="R8">
+        <v>12.89884813228269</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.41930538760696</v>
+        <v>11.93043609843755</v>
       </c>
       <c r="C9">
-        <v>8.726370764626946</v>
+        <v>9.175876050762835</v>
       </c>
       <c r="D9">
-        <v>5.049409617647787</v>
+        <v>5.193807052735476</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.74406161950078</v>
+        <v>21.61636987020718</v>
       </c>
       <c r="G9">
-        <v>30.51190334015882</v>
+        <v>28.40161439765517</v>
       </c>
       <c r="H9">
-        <v>2.389109226337711</v>
+        <v>2.389706987084261</v>
       </c>
       <c r="I9">
-        <v>2.835128669201332</v>
+        <v>2.859596265777868</v>
       </c>
       <c r="J9">
-        <v>10.35018890800161</v>
+        <v>10.26046996360849</v>
       </c>
       <c r="K9">
-        <v>16.18968133744685</v>
+        <v>15.21818941302592</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.75067949390813</v>
       </c>
       <c r="M9">
-        <v>11.67887208197166</v>
+        <v>9.923294257722132</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.85762297183595</v>
+        <v>11.57379950451004</v>
       </c>
       <c r="P9">
-        <v>12.8145309341113</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>31.85852300004725</v>
+      </c>
+      <c r="R9">
+        <v>12.57609842560746</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.52991846482028</v>
+        <v>12.92026184495295</v>
       </c>
       <c r="C10">
-        <v>9.468666033775545</v>
+        <v>9.992121736543895</v>
       </c>
       <c r="D10">
-        <v>5.262317325209959</v>
+        <v>5.470050563615754</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.67322567913651</v>
+        <v>22.28720382430076</v>
       </c>
       <c r="G10">
-        <v>31.8075736181885</v>
+        <v>29.86564981371274</v>
       </c>
       <c r="H10">
-        <v>2.739649829074616</v>
+        <v>2.733416928533341</v>
       </c>
       <c r="I10">
-        <v>3.104746505804864</v>
+        <v>3.092073439757641</v>
       </c>
       <c r="J10">
-        <v>10.44758362331885</v>
+        <v>10.09150814165895</v>
       </c>
       <c r="K10">
-        <v>16.33328823919727</v>
+        <v>15.1898373794274</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.50207587294646</v>
       </c>
       <c r="M10">
-        <v>12.6323117887822</v>
+        <v>10.24324001587155</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.74629102022756</v>
+        <v>12.47119428660464</v>
       </c>
       <c r="P10">
-        <v>12.56516928477079</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>33.73695039626488</v>
+      </c>
+      <c r="R10">
+        <v>12.30809485697944</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.47047534196429</v>
+        <v>13.82465216140434</v>
       </c>
       <c r="C11">
-        <v>10.0267387087057</v>
+        <v>10.45891597995964</v>
       </c>
       <c r="D11">
-        <v>5.5179631182276</v>
+        <v>5.779111359167601</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.07034765464811</v>
+        <v>21.50738630488382</v>
       </c>
       <c r="G11">
-        <v>30.5681807165528</v>
+        <v>29.56582015181714</v>
       </c>
       <c r="H11">
-        <v>3.175671627461107</v>
+        <v>3.169007273630587</v>
       </c>
       <c r="I11">
-        <v>3.184023251380296</v>
+        <v>3.158568241379955</v>
       </c>
       <c r="J11">
-        <v>10.14833951673375</v>
+        <v>9.36424166843846</v>
       </c>
       <c r="K11">
-        <v>15.67459774711956</v>
+        <v>14.48931396288004</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.92335782455254</v>
       </c>
       <c r="M11">
-        <v>13.41571854535091</v>
+        <v>9.811948029890353</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.05759767028019</v>
+        <v>13.19418334609657</v>
       </c>
       <c r="P11">
-        <v>12.23130851106704</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>27.04435924703742</v>
+      </c>
+      <c r="R11">
+        <v>12.03198078194509</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.059365948645</v>
+        <v>14.41751670011655</v>
       </c>
       <c r="C12">
-        <v>10.31997505320732</v>
+        <v>10.68384984095862</v>
       </c>
       <c r="D12">
-        <v>5.687586275673364</v>
+        <v>5.970406324180029</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.39721472006019</v>
+        <v>20.79938155747522</v>
       </c>
       <c r="G12">
-        <v>29.30937558866328</v>
+        <v>28.81709720126456</v>
       </c>
       <c r="H12">
-        <v>4.234528920374415</v>
+        <v>4.229804523112274</v>
       </c>
       <c r="I12">
-        <v>3.199522040458302</v>
+        <v>3.16983977249867</v>
       </c>
       <c r="J12">
-        <v>9.883861030254245</v>
+        <v>8.962230994757782</v>
       </c>
       <c r="K12">
-        <v>15.1191072655707</v>
+        <v>13.96921654866098</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.54587260340739</v>
       </c>
       <c r="M12">
-        <v>13.8852354944444</v>
+        <v>9.421059304214245</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.07172541127366</v>
+        <v>13.63905855119747</v>
       </c>
       <c r="P12">
-        <v>12.04211560704293</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>21.05707805120004</v>
+      </c>
+      <c r="R12">
+        <v>11.90589285397879</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.41124492131715</v>
+        <v>14.81336782844253</v>
       </c>
       <c r="C13">
-        <v>10.46105796043697</v>
+        <v>10.78970335475369</v>
       </c>
       <c r="D13">
-        <v>5.808088517793066</v>
+        <v>6.080660839597376</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.57012555893366</v>
+        <v>20.08997286098815</v>
       </c>
       <c r="G13">
-        <v>27.85286654809755</v>
+        <v>27.39909185232581</v>
       </c>
       <c r="H13">
-        <v>5.481040889183228</v>
+        <v>5.478175989559361</v>
       </c>
       <c r="I13">
-        <v>3.170556775216925</v>
+        <v>3.145628252663923</v>
       </c>
       <c r="J13">
-        <v>9.613503524591057</v>
+        <v>8.82110342525336</v>
       </c>
       <c r="K13">
-        <v>14.57143006264685</v>
+        <v>13.5389427400175</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.27549964646731</v>
       </c>
       <c r="M13">
-        <v>14.15154766184659</v>
+        <v>9.027981006076486</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.10468789252595</v>
+        <v>13.91836969509117</v>
       </c>
       <c r="P13">
-        <v>11.94294691554593</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.09025380619053</v>
+      </c>
+      <c r="R13">
+        <v>11.86980556490772</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.5510899992126</v>
+        <v>15.00247974086265</v>
       </c>
       <c r="C14">
-        <v>10.4982978168348</v>
+        <v>10.8166127293818</v>
       </c>
       <c r="D14">
-        <v>5.872116206666268</v>
+        <v>6.122578463258086</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.90674190234675</v>
+        <v>19.57672251069985</v>
       </c>
       <c r="G14">
-        <v>26.71754578694828</v>
+        <v>26.08686357670513</v>
       </c>
       <c r="H14">
-        <v>6.464222962394353</v>
+        <v>6.46570426676459</v>
       </c>
       <c r="I14">
-        <v>3.131941938275892</v>
+        <v>3.11462650913043</v>
       </c>
       <c r="J14">
-        <v>9.418911903369855</v>
+        <v>8.822060711792004</v>
       </c>
       <c r="K14">
-        <v>14.18687201894905</v>
+        <v>13.27018656295636</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.12522515799398</v>
       </c>
       <c r="M14">
-        <v>14.24858960946569</v>
+        <v>8.747319196569086</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.936401907634</v>
+        <v>14.04151971244005</v>
       </c>
       <c r="P14">
-        <v>11.91689867339679</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.92246681024702</v>
+      </c>
+      <c r="R14">
+        <v>11.88188203876575</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.52992243469398</v>
+        <v>15.00171753370915</v>
       </c>
       <c r="C15">
-        <v>10.48228469778221</v>
+        <v>10.80417315098349</v>
       </c>
       <c r="D15">
-        <v>5.87862410152916</v>
+        <v>6.117321327483361</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.70177210973918</v>
+        <v>19.43774014355813</v>
       </c>
       <c r="G15">
-        <v>26.37958738318794</v>
+        <v>25.62024877268195</v>
       </c>
       <c r="H15">
-        <v>6.705824129727657</v>
+        <v>6.707136090956159</v>
       </c>
       <c r="I15">
-        <v>3.113237878745968</v>
+        <v>3.100297102364702</v>
       </c>
       <c r="J15">
-        <v>9.367795910088381</v>
+        <v>8.863844905832718</v>
       </c>
       <c r="K15">
-        <v>14.08821106507186</v>
+        <v>13.21436080119874</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.10180273389284</v>
       </c>
       <c r="M15">
-        <v>14.2285398535201</v>
+        <v>8.67298175222567</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.921599566335646</v>
+        <v>14.03533866369477</v>
       </c>
       <c r="P15">
-        <v>11.92468413370261</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.908414045713744</v>
+      </c>
+      <c r="R15">
+        <v>11.89690996669375</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.02789132223838</v>
+        <v>14.57180039810522</v>
       </c>
       <c r="C16">
-        <v>10.17139504408787</v>
+        <v>10.5389334124833</v>
       </c>
       <c r="D16">
-        <v>5.769022100550346</v>
+        <v>5.953863295235661</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.41518818626914</v>
+        <v>19.39422616813817</v>
       </c>
       <c r="G16">
-        <v>26.01788104193493</v>
+        <v>24.5643861091064</v>
       </c>
       <c r="H16">
-        <v>6.491086346721723</v>
+        <v>6.49171888671548</v>
       </c>
       <c r="I16">
-        <v>3.007615474993679</v>
+        <v>3.014333366998865</v>
       </c>
       <c r="J16">
-        <v>9.370929676541291</v>
+        <v>9.251708757341435</v>
       </c>
       <c r="K16">
-        <v>14.11979982492298</v>
+        <v>13.3633411697782</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.2659723980522</v>
       </c>
       <c r="M16">
-        <v>13.80273028464223</v>
+        <v>8.670738022870404</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.865724916632995</v>
+        <v>13.67271496612635</v>
       </c>
       <c r="P16">
-        <v>12.04240786278433</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.859945874537157</v>
+      </c>
+      <c r="R16">
+        <v>11.99974783814083</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.554075745142</v>
+        <v>14.12181959978389</v>
       </c>
       <c r="C17">
-        <v>9.907724287110964</v>
+        <v>10.30379136036896</v>
       </c>
       <c r="D17">
-        <v>5.649270332661191</v>
+        <v>5.810559087777666</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.55945538183436</v>
+        <v>19.61781168463695</v>
       </c>
       <c r="G17">
-        <v>26.36395642290596</v>
+        <v>24.57976542622196</v>
       </c>
       <c r="H17">
-        <v>5.73336578327023</v>
+        <v>5.733607290396694</v>
       </c>
       <c r="I17">
-        <v>2.946430569238681</v>
+        <v>2.963669160871741</v>
       </c>
       <c r="J17">
-        <v>9.478055185452657</v>
+        <v>9.512328507191864</v>
       </c>
       <c r="K17">
-        <v>14.34865140742224</v>
+        <v>13.61191322242252</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.47348424152693</v>
       </c>
       <c r="M17">
-        <v>13.41460818086758</v>
+        <v>8.808150866941384</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.10259714281377</v>
+        <v>13.31166893105275</v>
       </c>
       <c r="P17">
-        <v>12.14567452092634</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.10086900054953</v>
+      </c>
+      <c r="R17">
+        <v>12.07847300400797</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.06831265441961</v>
+        <v>13.62658672710987</v>
       </c>
       <c r="C18">
-        <v>9.641641616454212</v>
+        <v>10.07045366927574</v>
       </c>
       <c r="D18">
-        <v>5.505348113932547</v>
+        <v>5.659097462487662</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.10983835971729</v>
+        <v>20.15266687263273</v>
       </c>
       <c r="G18">
-        <v>27.39430034156748</v>
+        <v>25.39491516908337</v>
       </c>
       <c r="H18">
-        <v>4.422902809528732</v>
+        <v>4.422795207088875</v>
       </c>
       <c r="I18">
-        <v>2.917064064251097</v>
+        <v>2.937289147513962</v>
       </c>
       <c r="J18">
-        <v>9.691914387599292</v>
+        <v>9.767097306041489</v>
       </c>
       <c r="K18">
-        <v>14.79057599849534</v>
+        <v>14.00938833667432</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.77071759810982</v>
       </c>
       <c r="M18">
-        <v>13.02077374661699</v>
+        <v>9.102523801533389</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.76701236047317</v>
+        <v>12.92618799086119</v>
       </c>
       <c r="P18">
-        <v>12.26630552149867</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.76653661359193</v>
+      </c>
+      <c r="R18">
+        <v>12.16129575386538</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.58609165591002</v>
+        <v>13.11253656886933</v>
       </c>
       <c r="C19">
-        <v>9.431188494179544</v>
+        <v>9.901063823000186</v>
       </c>
       <c r="D19">
-        <v>5.364055997539332</v>
+        <v>5.519998692387015</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.88635403207058</v>
+        <v>20.85666409037148</v>
       </c>
       <c r="G19">
-        <v>28.79523568533528</v>
+        <v>26.62643238704525</v>
       </c>
       <c r="H19">
-        <v>3.156270814696367</v>
+        <v>3.155855028181071</v>
       </c>
       <c r="I19">
-        <v>2.929193989971859</v>
+        <v>2.948372194727537</v>
       </c>
       <c r="J19">
-        <v>9.958083694408545</v>
+        <v>10.01379525275822</v>
       </c>
       <c r="K19">
-        <v>15.33641102965011</v>
+        <v>14.47238489083859</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.10319687355174</v>
       </c>
       <c r="M19">
-        <v>12.65033379358102</v>
+        <v>9.476080495627096</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.0749138050334</v>
+        <v>12.5526475003872</v>
       </c>
       <c r="P19">
-        <v>12.41074534501343</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>23.0738797476511</v>
+      </c>
+      <c r="R19">
+        <v>12.25762718309684</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.20599957579894</v>
+        <v>12.64043884328118</v>
       </c>
       <c r="C20">
-        <v>9.332106956068984</v>
+        <v>9.86641666411043</v>
       </c>
       <c r="D20">
-        <v>5.220322220524385</v>
+        <v>5.402406157454238</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.33912361196945</v>
+        <v>22.08576573396342</v>
       </c>
       <c r="G20">
-        <v>31.3067744476955</v>
+        <v>29.07644547376079</v>
       </c>
       <c r="H20">
-        <v>2.64435284003552</v>
+        <v>2.640382000984003</v>
       </c>
       <c r="I20">
-        <v>3.043246592631306</v>
+        <v>3.045663395705853</v>
       </c>
       <c r="J20">
-        <v>10.39025603631418</v>
+        <v>10.25353450439468</v>
       </c>
       <c r="K20">
-        <v>16.22060421258137</v>
+        <v>15.16062380150036</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.54151815184755</v>
       </c>
       <c r="M20">
-        <v>12.38345237098826</v>
+        <v>10.12545892032296</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.22059530768225</v>
+        <v>12.25338848153934</v>
       </c>
       <c r="P20">
-        <v>12.61304907037162</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>33.21464144475693</v>
+      </c>
+      <c r="R20">
+        <v>12.37172663514248</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.93933277515747</v>
+        <v>13.21845758358498</v>
       </c>
       <c r="C21">
-        <v>9.833535680204886</v>
+        <v>10.29055545126453</v>
       </c>
       <c r="D21">
-        <v>5.34974688038541</v>
+        <v>5.631857454735611</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.24487487352365</v>
+        <v>22.45541139872987</v>
       </c>
       <c r="G21">
-        <v>32.64406174274346</v>
+        <v>31.80926236671529</v>
       </c>
       <c r="H21">
-        <v>2.998975557992276</v>
+        <v>2.987400217733008</v>
       </c>
       <c r="I21">
-        <v>3.253530000097682</v>
+        <v>3.217368493583695</v>
       </c>
       <c r="J21">
-        <v>10.5356051287619</v>
+        <v>9.45228936564162</v>
       </c>
       <c r="K21">
-        <v>16.47585876307481</v>
+        <v>15.09304866593345</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.32218069118388</v>
       </c>
       <c r="M21">
-        <v>13.01807234956518</v>
+        <v>10.34615938187532</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.95902888054192</v>
+        <v>12.76189530745754</v>
       </c>
       <c r="P21">
-        <v>12.46896445635198</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>35.94172527724898</v>
+      </c>
+      <c r="R21">
+        <v>12.16105371887197</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.44126123245916</v>
+        <v>13.62136244597765</v>
       </c>
       <c r="C22">
-        <v>10.14426365956424</v>
+        <v>10.54138360674317</v>
       </c>
       <c r="D22">
-        <v>5.436102385485761</v>
+        <v>5.78624774927052</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.80818599830074</v>
+        <v>22.65550936449823</v>
       </c>
       <c r="G22">
-        <v>33.46584992779415</v>
+        <v>33.63944086763955</v>
       </c>
       <c r="H22">
-        <v>3.197760666226708</v>
+        <v>3.181276369214902</v>
       </c>
       <c r="I22">
-        <v>3.382885731685124</v>
+        <v>3.320891585128427</v>
       </c>
       <c r="J22">
-        <v>10.62579204206216</v>
+        <v>8.919370542383072</v>
       </c>
       <c r="K22">
-        <v>16.63334954465092</v>
+        <v>15.02921400616028</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.1669415833201</v>
       </c>
       <c r="M22">
-        <v>13.44094857141409</v>
+        <v>10.480784751548</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.23978515504551</v>
+        <v>13.10055987070897</v>
       </c>
       <c r="P22">
-        <v>12.36801167947584</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>37.21514000765409</v>
+      </c>
+      <c r="R22">
+        <v>12.01635175983624</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.19127009468122</v>
+        <v>13.43118401923782</v>
       </c>
       <c r="C23">
-        <v>9.960223180684512</v>
+        <v>10.4070218505976</v>
       </c>
       <c r="D23">
-        <v>5.385682689194389</v>
+        <v>5.691919811916532</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.53900281350686</v>
+        <v>22.62308489680317</v>
       </c>
       <c r="G23">
-        <v>33.08331646777042</v>
+        <v>32.53747642700871</v>
       </c>
       <c r="H23">
-        <v>3.092189098719357</v>
+        <v>3.078552939638274</v>
       </c>
       <c r="I23">
-        <v>3.310802067261249</v>
+        <v>3.262165424464469</v>
       </c>
       <c r="J23">
-        <v>10.58821551007975</v>
+        <v>9.299803702631499</v>
       </c>
       <c r="K23">
-        <v>16.57528158358434</v>
+        <v>15.11044032940039</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.28105192762127</v>
       </c>
       <c r="M23">
-        <v>13.21945894302847</v>
+        <v>10.4486092642718</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.56130644235201</v>
+        <v>12.93487824259092</v>
       </c>
       <c r="P23">
-        <v>12.42800100048279</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>36.54092170254194</v>
+      </c>
+      <c r="R23">
+        <v>12.1033196135269</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.17322335168134</v>
+        <v>12.60438630722685</v>
       </c>
       <c r="C24">
-        <v>9.27333983220154</v>
+        <v>9.810559686014066</v>
       </c>
       <c r="D24">
-        <v>5.197059712967708</v>
+        <v>5.377982093096406</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.46480977608344</v>
+        <v>22.20545893508765</v>
       </c>
       <c r="G24">
-        <v>31.53590535890141</v>
+        <v>29.27699611576007</v>
       </c>
       <c r="H24">
-        <v>2.686169694240715</v>
+        <v>2.682119528453927</v>
       </c>
       <c r="I24">
-        <v>3.038588828186296</v>
+        <v>3.038607907373398</v>
       </c>
       <c r="J24">
-        <v>10.43512559317255</v>
+        <v>10.30077806081764</v>
       </c>
       <c r="K24">
-        <v>16.32099309798374</v>
+        <v>15.25072788888389</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.60814469794325</v>
       </c>
       <c r="M24">
-        <v>12.34169153022743</v>
+        <v>10.19580616356664</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.88770169967091</v>
+        <v>12.21185917886848</v>
       </c>
       <c r="P24">
-        <v>12.64666742974456</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>33.8816339235084</v>
+      </c>
+      <c r="R24">
+        <v>12.39758358794983</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.97571277878396</v>
+        <v>11.53501309338461</v>
       </c>
       <c r="C25">
-        <v>8.488244142439514</v>
+        <v>8.902959015365784</v>
       </c>
       <c r="D25">
-        <v>4.983111376623532</v>
+        <v>5.105773228341986</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.30083773919766</v>
+        <v>21.26459243844652</v>
       </c>
       <c r="G25">
-        <v>29.85258366927154</v>
+        <v>27.74015413334203</v>
       </c>
       <c r="H25">
-        <v>2.234651120726734</v>
+        <v>2.237813133515544</v>
       </c>
       <c r="I25">
-        <v>2.736610213941308</v>
+        <v>2.777300342886571</v>
       </c>
       <c r="J25">
-        <v>10.28429161335477</v>
+        <v>10.26653695643478</v>
       </c>
       <c r="K25">
-        <v>16.06446013754736</v>
+        <v>15.15770122304769</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.78922187683242</v>
       </c>
       <c r="M25">
-        <v>11.3205786781023</v>
+        <v>9.759592283129654</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.7798923358426</v>
+        <v>11.23458477593094</v>
       </c>
       <c r="P25">
-        <v>12.88615041890996</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>30.78467213874432</v>
+      </c>
+      <c r="R25">
+        <v>12.65812238150143</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
